--- a/assets/templates/MauTV.xlsx
+++ b/assets/templates/MauTV.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11018"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/SSD Kang/WebLabor/WebLabor/assets/templates/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\khanhmf\Project_Flutter\LCE\WebLabor\assets\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39BE8C53-0B05-EB4E-8660-184D81043A7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B58AF592-16AC-4B61-BC20-272F38BAD2B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="620" windowWidth="38400" windowHeight="19720" xr2:uid="{56CB8A70-8679-4142-9517-FE2CB52A7E8D}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{56CB8A70-8679-4142-9517-FE2CB52A7E8D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -373,8 +373,8 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="2" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -382,14 +382,14 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -760,51 +760,51 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2C7B26A-4AE4-435C-BACA-61EE8E00590F}">
   <dimension ref="A1:AH416"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="R14" sqref="R14"/>
+    <sheetView tabSelected="1" topLeftCell="F8" workbookViewId="0">
+      <selection activeCell="AE17" sqref="AE17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:34" ht="37" x14ac:dyDescent="0.2">
-      <c r="A1" s="21" t="s">
+    <row r="1" spans="1:34" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
-      <c r="I1" s="21"/>
-      <c r="J1" s="21"/>
-      <c r="K1" s="21"/>
-      <c r="L1" s="21"/>
-      <c r="M1" s="21"/>
-      <c r="N1" s="21"/>
-      <c r="O1" s="21"/>
-      <c r="P1" s="21"/>
-      <c r="Q1" s="21"/>
-      <c r="R1" s="21"/>
-      <c r="S1" s="21"/>
-      <c r="T1" s="21"/>
-      <c r="U1" s="21"/>
-      <c r="V1" s="21"/>
-      <c r="W1" s="21"/>
-      <c r="X1" s="21"/>
-      <c r="Y1" s="21"/>
-      <c r="Z1" s="21"/>
-      <c r="AA1" s="21"/>
-      <c r="AB1" s="21"/>
-      <c r="AC1" s="21"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
+      <c r="J1" s="16"/>
+      <c r="K1" s="16"/>
+      <c r="L1" s="16"/>
+      <c r="M1" s="16"/>
+      <c r="N1" s="16"/>
+      <c r="O1" s="16"/>
+      <c r="P1" s="16"/>
+      <c r="Q1" s="16"/>
+      <c r="R1" s="16"/>
+      <c r="S1" s="16"/>
+      <c r="T1" s="16"/>
+      <c r="U1" s="16"/>
+      <c r="V1" s="16"/>
+      <c r="W1" s="16"/>
+      <c r="X1" s="16"/>
+      <c r="Y1" s="16"/>
+      <c r="Z1" s="16"/>
+      <c r="AA1" s="16"/>
+      <c r="AB1" s="16"/>
+      <c r="AC1" s="16"/>
       <c r="AD1" s="1"/>
       <c r="AE1" s="2"/>
       <c r="AF1" s="2"/>
       <c r="AG1" s="2"/>
       <c r="AH1" s="2"/>
     </row>
-    <row r="2" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -840,7 +840,7 @@
       <c r="AG2" s="2"/>
       <c r="AH2" s="2"/>
     </row>
-    <row r="3" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -876,7 +876,7 @@
       <c r="AG3" s="2"/>
       <c r="AH3" s="2"/>
     </row>
-    <row r="4" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -912,7 +912,7 @@
       <c r="AG4" s="2"/>
       <c r="AH4" s="2"/>
     </row>
-    <row r="5" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
@@ -948,7 +948,7 @@
       <c r="AG5" s="2"/>
       <c r="AH5" s="2"/>
     </row>
-    <row r="6" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -984,7 +984,7 @@
       <c r="AG6" s="2"/>
       <c r="AH6" s="2"/>
     </row>
-    <row r="7" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
@@ -1020,7 +1020,7 @@
       <c r="AG7" s="2"/>
       <c r="AH7" s="2"/>
     </row>
-    <row r="8" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
@@ -1056,7 +1056,7 @@
       <c r="AG8" s="2"/>
       <c r="AH8" s="2"/>
     </row>
-    <row r="9" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
@@ -1092,7 +1092,7 @@
       <c r="AG9" s="2"/>
       <c r="AH9" s="2"/>
     </row>
-    <row r="10" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -1128,7 +1128,7 @@
       <c r="AG10" s="2"/>
       <c r="AH10" s="2"/>
     </row>
-    <row r="11" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -1164,7 +1164,7 @@
       <c r="AG11" s="2"/>
       <c r="AH11" s="2"/>
     </row>
-    <row r="12" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -1200,7 +1200,7 @@
       <c r="AG12" s="2"/>
       <c r="AH12" s="2"/>
     </row>
-    <row r="13" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A13" s="17" t="s">
         <v>1</v>
       </c>
@@ -1240,35 +1240,35 @@
       <c r="M13" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="N13" s="16" t="s">
+      <c r="N13" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="O13" s="16"/>
-      <c r="P13" s="16"/>
-      <c r="Q13" s="19" t="s">
+      <c r="O13" s="19"/>
+      <c r="P13" s="19"/>
+      <c r="Q13" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="R13" s="20"/>
-      <c r="S13" s="20"/>
-      <c r="T13" s="20"/>
-      <c r="U13" s="20"/>
-      <c r="V13" s="20"/>
-      <c r="W13" s="20"/>
-      <c r="X13" s="20"/>
-      <c r="Y13" s="20"/>
-      <c r="Z13" s="20"/>
-      <c r="AA13" s="20"/>
-      <c r="AB13" s="20"/>
-      <c r="AC13" s="16" t="s">
+      <c r="R13" s="21"/>
+      <c r="S13" s="21"/>
+      <c r="T13" s="21"/>
+      <c r="U13" s="21"/>
+      <c r="V13" s="21"/>
+      <c r="W13" s="21"/>
+      <c r="X13" s="21"/>
+      <c r="Y13" s="21"/>
+      <c r="Z13" s="21"/>
+      <c r="AA13" s="21"/>
+      <c r="AB13" s="21"/>
+      <c r="AC13" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="AD13" s="16"/>
-      <c r="AE13" s="16"/>
-      <c r="AF13" s="16"/>
-      <c r="AG13" s="16"/>
-      <c r="AH13" s="16"/>
-    </row>
-    <row r="14" spans="1:34" ht="180" x14ac:dyDescent="0.2">
+      <c r="AD13" s="19"/>
+      <c r="AE13" s="19"/>
+      <c r="AF13" s="19"/>
+      <c r="AG13" s="19"/>
+      <c r="AH13" s="19"/>
+    </row>
+    <row r="14" spans="1:34" ht="198" x14ac:dyDescent="0.25">
       <c r="A14" s="18"/>
       <c r="B14" s="18"/>
       <c r="C14" s="18"/>
@@ -1331,13 +1331,13 @@
         <v>32</v>
       </c>
       <c r="AD14" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="AE14" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="AF14" s="6" t="s">
         <v>38</v>
-      </c>
-      <c r="AE14" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="AF14" s="6" t="s">
-        <v>34</v>
       </c>
       <c r="AG14" s="6" t="s">
         <v>35</v>
@@ -1346,7 +1346,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="15" spans="1:34" ht="17" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:34" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A15" s="7"/>
       <c r="B15" s="7"/>
       <c r="C15" s="7"/>
@@ -1390,7 +1390,7 @@
       <c r="AG15" s="8"/>
       <c r="AH15" s="8"/>
     </row>
-    <row r="16" spans="1:34" ht="17" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:34" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A16" s="7"/>
       <c r="B16" s="7"/>
       <c r="C16" s="7"/>
@@ -1434,7 +1434,7 @@
       <c r="AG16" s="14"/>
       <c r="AH16" s="14"/>
     </row>
-    <row r="17" spans="1:34" ht="17" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:34" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A17" s="7"/>
       <c r="B17" s="7"/>
       <c r="C17" s="7"/>
@@ -1478,7 +1478,7 @@
       <c r="AG17" s="14"/>
       <c r="AH17" s="14"/>
     </row>
-    <row r="18" spans="1:34" ht="17" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:34" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A18" s="7"/>
       <c r="B18" s="7"/>
       <c r="C18" s="7"/>
@@ -1522,7 +1522,7 @@
       <c r="AG18" s="14"/>
       <c r="AH18" s="14"/>
     </row>
-    <row r="19" spans="1:34" ht="17" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:34" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A19" s="7"/>
       <c r="B19" s="7"/>
       <c r="C19" s="7"/>
@@ -1566,7 +1566,7 @@
       <c r="AG19" s="14"/>
       <c r="AH19" s="14"/>
     </row>
-    <row r="20" spans="1:34" ht="17" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:34" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A20" s="7"/>
       <c r="B20" s="7"/>
       <c r="C20" s="7"/>
@@ -1610,7 +1610,7 @@
       <c r="AG20" s="14"/>
       <c r="AH20" s="14"/>
     </row>
-    <row r="21" spans="1:34" ht="17" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:34" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A21" s="7"/>
       <c r="B21" s="7"/>
       <c r="C21" s="7"/>
@@ -1654,7 +1654,7 @@
       <c r="AG21" s="14"/>
       <c r="AH21" s="14"/>
     </row>
-    <row r="22" spans="1:34" ht="17" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:34" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A22" s="7"/>
       <c r="B22" s="7"/>
       <c r="C22" s="7"/>
@@ -1698,7 +1698,7 @@
       <c r="AG22" s="14"/>
       <c r="AH22" s="14"/>
     </row>
-    <row r="23" spans="1:34" ht="17" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:34" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A23" s="7"/>
       <c r="B23" s="7"/>
       <c r="C23" s="7"/>
@@ -1742,7 +1742,7 @@
       <c r="AG23" s="14"/>
       <c r="AH23" s="14"/>
     </row>
-    <row r="24" spans="1:34" ht="17" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:34" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A24" s="7"/>
       <c r="B24" s="7"/>
       <c r="C24" s="7"/>
@@ -1786,7 +1786,7 @@
       <c r="AG24" s="14"/>
       <c r="AH24" s="14"/>
     </row>
-    <row r="25" spans="1:34" ht="17" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:34" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A25" s="7"/>
       <c r="B25" s="7"/>
       <c r="C25" s="7"/>
@@ -1830,7 +1830,7 @@
       <c r="AG25" s="14"/>
       <c r="AH25" s="14"/>
     </row>
-    <row r="26" spans="1:34" ht="17" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:34" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A26" s="7"/>
       <c r="B26" s="7"/>
       <c r="C26" s="7"/>
@@ -1874,7 +1874,7 @@
       <c r="AG26" s="14"/>
       <c r="AH26" s="14"/>
     </row>
-    <row r="27" spans="1:34" ht="17" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:34" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A27" s="7"/>
       <c r="B27" s="7"/>
       <c r="C27" s="7"/>
@@ -1918,7 +1918,7 @@
       <c r="AG27" s="14"/>
       <c r="AH27" s="14"/>
     </row>
-    <row r="28" spans="1:34" ht="17" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:34" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A28" s="7"/>
       <c r="B28" s="7"/>
       <c r="C28" s="7"/>
@@ -1962,7 +1962,7 @@
       <c r="AG28" s="14"/>
       <c r="AH28" s="14"/>
     </row>
-    <row r="29" spans="1:34" ht="17" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:34" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A29" s="7"/>
       <c r="B29" s="7"/>
       <c r="C29" s="7"/>
@@ -2006,7 +2006,7 @@
       <c r="AG29" s="14"/>
       <c r="AH29" s="14"/>
     </row>
-    <row r="30" spans="1:34" ht="17" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:34" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A30" s="7"/>
       <c r="B30" s="7"/>
       <c r="C30" s="7"/>
@@ -2050,7 +2050,7 @@
       <c r="AG30" s="14"/>
       <c r="AH30" s="14"/>
     </row>
-    <row r="31" spans="1:34" ht="17" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:34" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A31" s="7"/>
       <c r="B31" s="7"/>
       <c r="C31" s="7"/>
@@ -2094,7 +2094,7 @@
       <c r="AG31" s="14"/>
       <c r="AH31" s="14"/>
     </row>
-    <row r="32" spans="1:34" ht="17" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:34" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A32" s="7"/>
       <c r="B32" s="7"/>
       <c r="C32" s="7"/>
@@ -2138,7 +2138,7 @@
       <c r="AG32" s="14"/>
       <c r="AH32" s="14"/>
     </row>
-    <row r="33" spans="1:34" ht="17" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:34" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A33" s="7"/>
       <c r="B33" s="7"/>
       <c r="C33" s="7"/>
@@ -2182,7 +2182,7 @@
       <c r="AG33" s="14"/>
       <c r="AH33" s="14"/>
     </row>
-    <row r="34" spans="1:34" ht="17" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:34" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A34" s="7"/>
       <c r="B34" s="7"/>
       <c r="C34" s="7"/>
@@ -2226,7 +2226,7 @@
       <c r="AG34" s="14"/>
       <c r="AH34" s="14"/>
     </row>
-    <row r="35" spans="1:34" ht="17" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:34" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A35" s="7"/>
       <c r="B35" s="7"/>
       <c r="C35" s="7"/>
@@ -2270,7 +2270,7 @@
       <c r="AG35" s="14"/>
       <c r="AH35" s="14"/>
     </row>
-    <row r="36" spans="1:34" ht="17" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:34" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A36" s="7"/>
       <c r="B36" s="7"/>
       <c r="C36" s="7"/>
@@ -2314,7 +2314,7 @@
       <c r="AG36" s="14"/>
       <c r="AH36" s="14"/>
     </row>
-    <row r="37" spans="1:34" ht="17" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:34" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A37" s="7"/>
       <c r="B37" s="7"/>
       <c r="C37" s="7"/>
@@ -2358,7 +2358,7 @@
       <c r="AG37" s="14"/>
       <c r="AH37" s="14"/>
     </row>
-    <row r="38" spans="1:34" ht="17" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:34" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A38" s="7"/>
       <c r="B38" s="7"/>
       <c r="C38" s="7"/>
@@ -2402,7 +2402,7 @@
       <c r="AG38" s="14"/>
       <c r="AH38" s="14"/>
     </row>
-    <row r="39" spans="1:34" ht="17" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:34" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A39" s="7"/>
       <c r="B39" s="7"/>
       <c r="C39" s="7"/>
@@ -2446,7 +2446,7 @@
       <c r="AG39" s="14"/>
       <c r="AH39" s="14"/>
     </row>
-    <row r="40" spans="1:34" ht="17" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:34" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A40" s="7"/>
       <c r="B40" s="7"/>
       <c r="C40" s="7"/>
@@ -2490,7 +2490,7 @@
       <c r="AG40" s="14"/>
       <c r="AH40" s="14"/>
     </row>
-    <row r="41" spans="1:34" ht="17" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:34" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A41" s="7"/>
       <c r="B41" s="7"/>
       <c r="C41" s="7"/>
@@ -2534,7 +2534,7 @@
       <c r="AG41" s="14"/>
       <c r="AH41" s="14"/>
     </row>
-    <row r="42" spans="1:34" ht="17" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:34" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A42" s="7"/>
       <c r="B42" s="7"/>
       <c r="C42" s="7"/>
@@ -2578,7 +2578,7 @@
       <c r="AG42" s="14"/>
       <c r="AH42" s="14"/>
     </row>
-    <row r="43" spans="1:34" ht="17" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:34" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A43" s="7"/>
       <c r="B43" s="7"/>
       <c r="C43" s="7"/>
@@ -2622,7 +2622,7 @@
       <c r="AG43" s="14"/>
       <c r="AH43" s="14"/>
     </row>
-    <row r="44" spans="1:34" ht="17" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:34" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A44" s="7"/>
       <c r="B44" s="7"/>
       <c r="C44" s="7"/>
@@ -2666,7 +2666,7 @@
       <c r="AG44" s="14"/>
       <c r="AH44" s="14"/>
     </row>
-    <row r="45" spans="1:34" ht="17" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:34" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A45" s="7"/>
       <c r="B45" s="7"/>
       <c r="C45" s="7"/>
@@ -2710,7 +2710,7 @@
       <c r="AG45" s="14"/>
       <c r="AH45" s="14"/>
     </row>
-    <row r="46" spans="1:34" ht="17" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:34" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A46" s="7"/>
       <c r="B46" s="7"/>
       <c r="C46" s="7"/>
@@ -2754,7 +2754,7 @@
       <c r="AG46" s="14"/>
       <c r="AH46" s="14"/>
     </row>
-    <row r="47" spans="1:34" ht="17" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:34" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A47" s="7"/>
       <c r="B47" s="7"/>
       <c r="C47" s="7"/>
@@ -2798,7 +2798,7 @@
       <c r="AG47" s="14"/>
       <c r="AH47" s="14"/>
     </row>
-    <row r="48" spans="1:34" ht="17" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:34" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A48" s="7"/>
       <c r="B48" s="7"/>
       <c r="C48" s="7"/>
@@ -2842,7 +2842,7 @@
       <c r="AG48" s="14"/>
       <c r="AH48" s="14"/>
     </row>
-    <row r="49" spans="1:34" ht="17" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:34" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A49" s="7"/>
       <c r="B49" s="7"/>
       <c r="C49" s="7"/>
@@ -2886,7 +2886,7 @@
       <c r="AG49" s="14"/>
       <c r="AH49" s="14"/>
     </row>
-    <row r="50" spans="1:34" ht="17" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:34" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A50" s="7"/>
       <c r="B50" s="7"/>
       <c r="C50" s="7"/>
@@ -2930,7 +2930,7 @@
       <c r="AG50" s="14"/>
       <c r="AH50" s="14"/>
     </row>
-    <row r="51" spans="1:34" ht="17" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:34" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A51" s="7"/>
       <c r="B51" s="7"/>
       <c r="C51" s="7"/>
@@ -2974,7 +2974,7 @@
       <c r="AG51" s="14"/>
       <c r="AH51" s="14"/>
     </row>
-    <row r="52" spans="1:34" ht="17" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:34" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A52" s="7"/>
       <c r="B52" s="7"/>
       <c r="C52" s="7"/>
@@ -3018,7 +3018,7 @@
       <c r="AG52" s="14"/>
       <c r="AH52" s="14"/>
     </row>
-    <row r="53" spans="1:34" ht="17" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:34" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A53" s="7"/>
       <c r="B53" s="7"/>
       <c r="C53" s="7"/>
@@ -3062,7 +3062,7 @@
       <c r="AG53" s="14"/>
       <c r="AH53" s="14"/>
     </row>
-    <row r="54" spans="1:34" ht="17" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:34" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A54" s="7"/>
       <c r="B54" s="7"/>
       <c r="C54" s="7"/>
@@ -3106,7 +3106,7 @@
       <c r="AG54" s="14"/>
       <c r="AH54" s="14"/>
     </row>
-    <row r="55" spans="1:34" ht="17" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:34" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A55" s="7"/>
       <c r="B55" s="7"/>
       <c r="C55" s="7"/>
@@ -3150,7 +3150,7 @@
       <c r="AG55" s="14"/>
       <c r="AH55" s="14"/>
     </row>
-    <row r="56" spans="1:34" ht="17" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:34" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A56" s="7"/>
       <c r="B56" s="7"/>
       <c r="C56" s="7"/>
@@ -3194,7 +3194,7 @@
       <c r="AG56" s="14"/>
       <c r="AH56" s="14"/>
     </row>
-    <row r="57" spans="1:34" ht="17" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:34" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A57" s="7"/>
       <c r="B57" s="7"/>
       <c r="C57" s="7"/>
@@ -3238,7 +3238,7 @@
       <c r="AG57" s="14"/>
       <c r="AH57" s="14"/>
     </row>
-    <row r="58" spans="1:34" ht="17" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:34" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A58" s="7"/>
       <c r="B58" s="7"/>
       <c r="C58" s="7"/>
@@ -3282,7 +3282,7 @@
       <c r="AG58" s="14"/>
       <c r="AH58" s="14"/>
     </row>
-    <row r="59" spans="1:34" ht="17" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:34" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A59" s="7"/>
       <c r="B59" s="7"/>
       <c r="C59" s="7"/>
@@ -3326,7 +3326,7 @@
       <c r="AG59" s="14"/>
       <c r="AH59" s="14"/>
     </row>
-    <row r="60" spans="1:34" ht="17" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:34" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A60" s="7"/>
       <c r="B60" s="7"/>
       <c r="C60" s="7"/>
@@ -3370,7 +3370,7 @@
       <c r="AG60" s="14"/>
       <c r="AH60" s="14"/>
     </row>
-    <row r="61" spans="1:34" ht="17" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:34" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A61" s="7"/>
       <c r="B61" s="7"/>
       <c r="C61" s="7"/>
@@ -3414,7 +3414,7 @@
       <c r="AG61" s="14"/>
       <c r="AH61" s="14"/>
     </row>
-    <row r="62" spans="1:34" ht="17" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:34" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A62" s="7"/>
       <c r="B62" s="7"/>
       <c r="C62" s="7"/>
@@ -3458,7 +3458,7 @@
       <c r="AG62" s="14"/>
       <c r="AH62" s="14"/>
     </row>
-    <row r="63" spans="1:34" ht="17" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:34" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A63" s="7"/>
       <c r="B63" s="7"/>
       <c r="C63" s="7"/>
@@ -3502,7 +3502,7 @@
       <c r="AG63" s="14"/>
       <c r="AH63" s="14"/>
     </row>
-    <row r="64" spans="1:34" ht="17" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:34" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A64" s="7"/>
       <c r="B64" s="7"/>
       <c r="C64" s="7"/>
@@ -3546,7 +3546,7 @@
       <c r="AG64" s="14"/>
       <c r="AH64" s="14"/>
     </row>
-    <row r="65" spans="1:34" ht="17" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:34" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A65" s="7"/>
       <c r="B65" s="7"/>
       <c r="C65" s="7"/>
@@ -3590,7 +3590,7 @@
       <c r="AG65" s="14"/>
       <c r="AH65" s="14"/>
     </row>
-    <row r="66" spans="1:34" ht="17" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:34" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A66" s="7"/>
       <c r="B66" s="7"/>
       <c r="C66" s="7"/>
@@ -3634,7 +3634,7 @@
       <c r="AG66" s="14"/>
       <c r="AH66" s="14"/>
     </row>
-    <row r="67" spans="1:34" ht="17" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:34" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A67" s="7"/>
       <c r="B67" s="7"/>
       <c r="C67" s="7"/>
@@ -3678,7 +3678,7 @@
       <c r="AG67" s="14"/>
       <c r="AH67" s="14"/>
     </row>
-    <row r="68" spans="1:34" ht="17" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:34" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A68" s="7"/>
       <c r="B68" s="7"/>
       <c r="C68" s="7"/>
@@ -3722,7 +3722,7 @@
       <c r="AG68" s="14"/>
       <c r="AH68" s="14"/>
     </row>
-    <row r="69" spans="1:34" ht="17" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:34" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A69" s="7"/>
       <c r="B69" s="7"/>
       <c r="C69" s="7"/>
@@ -3766,7 +3766,7 @@
       <c r="AG69" s="14"/>
       <c r="AH69" s="14"/>
     </row>
-    <row r="70" spans="1:34" ht="17" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:34" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A70" s="7"/>
       <c r="B70" s="7"/>
       <c r="C70" s="7"/>
@@ -3810,7 +3810,7 @@
       <c r="AG70" s="14"/>
       <c r="AH70" s="14"/>
     </row>
-    <row r="71" spans="1:34" ht="17" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:34" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A71" s="7"/>
       <c r="B71" s="7"/>
       <c r="C71" s="7"/>
@@ -3854,7 +3854,7 @@
       <c r="AG71" s="14"/>
       <c r="AH71" s="14"/>
     </row>
-    <row r="72" spans="1:34" ht="17" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:34" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A72" s="7"/>
       <c r="B72" s="7"/>
       <c r="C72" s="7"/>
@@ -3898,7 +3898,7 @@
       <c r="AG72" s="14"/>
       <c r="AH72" s="14"/>
     </row>
-    <row r="73" spans="1:34" ht="17" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:34" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A73" s="7"/>
       <c r="B73" s="7"/>
       <c r="C73" s="7"/>
@@ -3942,7 +3942,7 @@
       <c r="AG73" s="14"/>
       <c r="AH73" s="14"/>
     </row>
-    <row r="74" spans="1:34" ht="17" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:34" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A74" s="7"/>
       <c r="B74" s="7"/>
       <c r="C74" s="7"/>
@@ -3986,7 +3986,7 @@
       <c r="AG74" s="14"/>
       <c r="AH74" s="14"/>
     </row>
-    <row r="75" spans="1:34" ht="17" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:34" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A75" s="7"/>
       <c r="B75" s="7"/>
       <c r="C75" s="7"/>
@@ -4030,7 +4030,7 @@
       <c r="AG75" s="14"/>
       <c r="AH75" s="14"/>
     </row>
-    <row r="76" spans="1:34" ht="17" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:34" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A76" s="7"/>
       <c r="B76" s="7"/>
       <c r="C76" s="7"/>
@@ -4074,7 +4074,7 @@
       <c r="AG76" s="14"/>
       <c r="AH76" s="14"/>
     </row>
-    <row r="77" spans="1:34" ht="17" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:34" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A77" s="7"/>
       <c r="B77" s="7"/>
       <c r="C77" s="7"/>
@@ -4118,7 +4118,7 @@
       <c r="AG77" s="14"/>
       <c r="AH77" s="14"/>
     </row>
-    <row r="78" spans="1:34" ht="17" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:34" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A78" s="7"/>
       <c r="B78" s="7"/>
       <c r="C78" s="7"/>
@@ -4162,7 +4162,7 @@
       <c r="AG78" s="14"/>
       <c r="AH78" s="14"/>
     </row>
-    <row r="79" spans="1:34" ht="17" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:34" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A79" s="7"/>
       <c r="B79" s="7"/>
       <c r="C79" s="7"/>
@@ -4206,7 +4206,7 @@
       <c r="AG79" s="14"/>
       <c r="AH79" s="14"/>
     </row>
-    <row r="80" spans="1:34" ht="17" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:34" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A80" s="7"/>
       <c r="B80" s="7"/>
       <c r="C80" s="7"/>
@@ -4250,7 +4250,7 @@
       <c r="AG80" s="14"/>
       <c r="AH80" s="14"/>
     </row>
-    <row r="81" spans="1:34" ht="17" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:34" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A81" s="7"/>
       <c r="B81" s="7"/>
       <c r="C81" s="7"/>
@@ -4294,7 +4294,7 @@
       <c r="AG81" s="14"/>
       <c r="AH81" s="14"/>
     </row>
-    <row r="82" spans="1:34" ht="17" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:34" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A82" s="7"/>
       <c r="B82" s="7"/>
       <c r="C82" s="7"/>
@@ -4338,7 +4338,7 @@
       <c r="AG82" s="14"/>
       <c r="AH82" s="14"/>
     </row>
-    <row r="83" spans="1:34" ht="17" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:34" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A83" s="7"/>
       <c r="B83" s="7"/>
       <c r="C83" s="7"/>
@@ -4382,7 +4382,7 @@
       <c r="AG83" s="14"/>
       <c r="AH83" s="14"/>
     </row>
-    <row r="84" spans="1:34" ht="17" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:34" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A84" s="7"/>
       <c r="B84" s="7"/>
       <c r="C84" s="7"/>
@@ -4426,7 +4426,7 @@
       <c r="AG84" s="14"/>
       <c r="AH84" s="14"/>
     </row>
-    <row r="85" spans="1:34" ht="17" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:34" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A85" s="7"/>
       <c r="B85" s="7"/>
       <c r="C85" s="7"/>
@@ -4470,7 +4470,7 @@
       <c r="AG85" s="14"/>
       <c r="AH85" s="14"/>
     </row>
-    <row r="86" spans="1:34" ht="17" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:34" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A86" s="7"/>
       <c r="B86" s="7"/>
       <c r="C86" s="7"/>
@@ -4514,7 +4514,7 @@
       <c r="AG86" s="14"/>
       <c r="AH86" s="14"/>
     </row>
-    <row r="87" spans="1:34" ht="17" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:34" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A87" s="7"/>
       <c r="B87" s="7"/>
       <c r="C87" s="7"/>
@@ -4558,7 +4558,7 @@
       <c r="AG87" s="14"/>
       <c r="AH87" s="14"/>
     </row>
-    <row r="88" spans="1:34" ht="17" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:34" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A88" s="7"/>
       <c r="B88" s="7"/>
       <c r="C88" s="7"/>
@@ -4602,7 +4602,7 @@
       <c r="AG88" s="14"/>
       <c r="AH88" s="14"/>
     </row>
-    <row r="89" spans="1:34" ht="17" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:34" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A89" s="7"/>
       <c r="B89" s="7"/>
       <c r="C89" s="7"/>
@@ -4646,7 +4646,7 @@
       <c r="AG89" s="14"/>
       <c r="AH89" s="14"/>
     </row>
-    <row r="90" spans="1:34" ht="17" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:34" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A90" s="7"/>
       <c r="B90" s="7"/>
       <c r="C90" s="7"/>
@@ -4690,7 +4690,7 @@
       <c r="AG90" s="14"/>
       <c r="AH90" s="14"/>
     </row>
-    <row r="91" spans="1:34" ht="17" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:34" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A91" s="7"/>
       <c r="B91" s="7"/>
       <c r="C91" s="7"/>
@@ -4734,7 +4734,7 @@
       <c r="AG91" s="14"/>
       <c r="AH91" s="14"/>
     </row>
-    <row r="92" spans="1:34" ht="17" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:34" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A92" s="7"/>
       <c r="B92" s="7"/>
       <c r="C92" s="7"/>
@@ -4778,7 +4778,7 @@
       <c r="AG92" s="14"/>
       <c r="AH92" s="14"/>
     </row>
-    <row r="93" spans="1:34" ht="17" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:34" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A93" s="7"/>
       <c r="B93" s="7"/>
       <c r="C93" s="7"/>
@@ -4822,7 +4822,7 @@
       <c r="AG93" s="14"/>
       <c r="AH93" s="14"/>
     </row>
-    <row r="94" spans="1:34" ht="17" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:34" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A94" s="7"/>
       <c r="B94" s="7"/>
       <c r="C94" s="7"/>
@@ -4866,7 +4866,7 @@
       <c r="AG94" s="14"/>
       <c r="AH94" s="14"/>
     </row>
-    <row r="95" spans="1:34" ht="17" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:34" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A95" s="7"/>
       <c r="B95" s="7"/>
       <c r="C95" s="7"/>
@@ -4910,7 +4910,7 @@
       <c r="AG95" s="14"/>
       <c r="AH95" s="14"/>
     </row>
-    <row r="96" spans="1:34" ht="17" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:34" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A96" s="7"/>
       <c r="B96" s="7"/>
       <c r="C96" s="7"/>
@@ -4954,7 +4954,7 @@
       <c r="AG96" s="14"/>
       <c r="AH96" s="14"/>
     </row>
-    <row r="97" spans="1:34" ht="17" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:34" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A97" s="7"/>
       <c r="B97" s="7"/>
       <c r="C97" s="7"/>
@@ -4998,7 +4998,7 @@
       <c r="AG97" s="14"/>
       <c r="AH97" s="14"/>
     </row>
-    <row r="98" spans="1:34" ht="17" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:34" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A98" s="7"/>
       <c r="B98" s="7"/>
       <c r="C98" s="7"/>
@@ -5042,7 +5042,7 @@
       <c r="AG98" s="14"/>
       <c r="AH98" s="14"/>
     </row>
-    <row r="99" spans="1:34" ht="17" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:34" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A99" s="7"/>
       <c r="B99" s="7"/>
       <c r="C99" s="7"/>
@@ -5086,7 +5086,7 @@
       <c r="AG99" s="14"/>
       <c r="AH99" s="14"/>
     </row>
-    <row r="100" spans="1:34" ht="17" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:34" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A100" s="7"/>
       <c r="B100" s="7"/>
       <c r="C100" s="7"/>
@@ -5130,7 +5130,7 @@
       <c r="AG100" s="14"/>
       <c r="AH100" s="14"/>
     </row>
-    <row r="101" spans="1:34" ht="17" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:34" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A101" s="7"/>
       <c r="B101" s="7"/>
       <c r="C101" s="7"/>
@@ -5174,7 +5174,7 @@
       <c r="AG101" s="14"/>
       <c r="AH101" s="14"/>
     </row>
-    <row r="102" spans="1:34" ht="17" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:34" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A102" s="7"/>
       <c r="B102" s="7"/>
       <c r="C102" s="7"/>
@@ -5218,7 +5218,7 @@
       <c r="AG102" s="14"/>
       <c r="AH102" s="14"/>
     </row>
-    <row r="103" spans="1:34" ht="17" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:34" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A103" s="7"/>
       <c r="B103" s="7"/>
       <c r="C103" s="7"/>
@@ -5262,7 +5262,7 @@
       <c r="AG103" s="14"/>
       <c r="AH103" s="14"/>
     </row>
-    <row r="104" spans="1:34" ht="17" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:34" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A104" s="7"/>
       <c r="B104" s="7"/>
       <c r="C104" s="7"/>
@@ -5306,7 +5306,7 @@
       <c r="AG104" s="14"/>
       <c r="AH104" s="14"/>
     </row>
-    <row r="105" spans="1:34" ht="17" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:34" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A105" s="7"/>
       <c r="B105" s="7"/>
       <c r="C105" s="7"/>
@@ -5350,7 +5350,7 @@
       <c r="AG105" s="14"/>
       <c r="AH105" s="14"/>
     </row>
-    <row r="106" spans="1:34" ht="17" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:34" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A106" s="7"/>
       <c r="B106" s="7"/>
       <c r="C106" s="7"/>
@@ -5394,7 +5394,7 @@
       <c r="AG106" s="14"/>
       <c r="AH106" s="14"/>
     </row>
-    <row r="107" spans="1:34" ht="17" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:34" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A107" s="7"/>
       <c r="B107" s="7"/>
       <c r="C107" s="7"/>
@@ -5438,7 +5438,7 @@
       <c r="AG107" s="14"/>
       <c r="AH107" s="14"/>
     </row>
-    <row r="108" spans="1:34" ht="17" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:34" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A108" s="7"/>
       <c r="B108" s="7"/>
       <c r="C108" s="7"/>
@@ -5482,7 +5482,7 @@
       <c r="AG108" s="14"/>
       <c r="AH108" s="14"/>
     </row>
-    <row r="109" spans="1:34" ht="17" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:34" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A109" s="7"/>
       <c r="B109" s="7"/>
       <c r="C109" s="7"/>
@@ -5526,7 +5526,7 @@
       <c r="AG109" s="14"/>
       <c r="AH109" s="14"/>
     </row>
-    <row r="110" spans="1:34" ht="17" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:34" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A110" s="7"/>
       <c r="B110" s="7"/>
       <c r="C110" s="7"/>
@@ -5570,7 +5570,7 @@
       <c r="AG110" s="14"/>
       <c r="AH110" s="14"/>
     </row>
-    <row r="111" spans="1:34" ht="17" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:34" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A111" s="7"/>
       <c r="B111" s="7"/>
       <c r="C111" s="7"/>
@@ -5614,7 +5614,7 @@
       <c r="AG111" s="14"/>
       <c r="AH111" s="14"/>
     </row>
-    <row r="112" spans="1:34" ht="17" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:34" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A112" s="7"/>
       <c r="B112" s="7"/>
       <c r="C112" s="7"/>
@@ -5658,7 +5658,7 @@
       <c r="AG112" s="14"/>
       <c r="AH112" s="14"/>
     </row>
-    <row r="113" spans="1:34" ht="17" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:34" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A113" s="7"/>
       <c r="B113" s="7"/>
       <c r="C113" s="7"/>
@@ -5702,7 +5702,7 @@
       <c r="AG113" s="14"/>
       <c r="AH113" s="14"/>
     </row>
-    <row r="114" spans="1:34" ht="17" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:34" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A114" s="7"/>
       <c r="B114" s="7"/>
       <c r="C114" s="7"/>
@@ -5746,7 +5746,7 @@
       <c r="AG114" s="14"/>
       <c r="AH114" s="14"/>
     </row>
-    <row r="115" spans="1:34" ht="17" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:34" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A115" s="7"/>
       <c r="B115" s="7"/>
       <c r="C115" s="7"/>
@@ -5790,7 +5790,7 @@
       <c r="AG115" s="14"/>
       <c r="AH115" s="14"/>
     </row>
-    <row r="116" spans="1:34" ht="17" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:34" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A116" s="7"/>
       <c r="B116" s="7"/>
       <c r="C116" s="7"/>
@@ -5834,7 +5834,7 @@
       <c r="AG116" s="14"/>
       <c r="AH116" s="14"/>
     </row>
-    <row r="117" spans="1:34" ht="17" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:34" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A117" s="7"/>
       <c r="B117" s="7"/>
       <c r="C117" s="7"/>
@@ -5878,7 +5878,7 @@
       <c r="AG117" s="14"/>
       <c r="AH117" s="14"/>
     </row>
-    <row r="118" spans="1:34" ht="17" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:34" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A118" s="7"/>
       <c r="B118" s="7"/>
       <c r="C118" s="7"/>
@@ -5922,7 +5922,7 @@
       <c r="AG118" s="14"/>
       <c r="AH118" s="14"/>
     </row>
-    <row r="119" spans="1:34" ht="17" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:34" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A119" s="7"/>
       <c r="B119" s="7"/>
       <c r="C119" s="7"/>
@@ -5966,7 +5966,7 @@
       <c r="AG119" s="14"/>
       <c r="AH119" s="14"/>
     </row>
-    <row r="120" spans="1:34" ht="17" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:34" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A120" s="7"/>
       <c r="B120" s="7"/>
       <c r="C120" s="7"/>
@@ -6010,7 +6010,7 @@
       <c r="AG120" s="14"/>
       <c r="AH120" s="14"/>
     </row>
-    <row r="121" spans="1:34" ht="17" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:34" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A121" s="7"/>
       <c r="B121" s="7"/>
       <c r="C121" s="7"/>
@@ -6054,7 +6054,7 @@
       <c r="AG121" s="14"/>
       <c r="AH121" s="14"/>
     </row>
-    <row r="122" spans="1:34" ht="17" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:34" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A122" s="7"/>
       <c r="B122" s="7"/>
       <c r="C122" s="7"/>
@@ -6098,7 +6098,7 @@
       <c r="AG122" s="14"/>
       <c r="AH122" s="14"/>
     </row>
-    <row r="123" spans="1:34" ht="17" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:34" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A123" s="7"/>
       <c r="B123" s="7"/>
       <c r="C123" s="7"/>
@@ -6142,7 +6142,7 @@
       <c r="AG123" s="14"/>
       <c r="AH123" s="14"/>
     </row>
-    <row r="124" spans="1:34" ht="17" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:34" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A124" s="7"/>
       <c r="B124" s="7"/>
       <c r="C124" s="7"/>
@@ -6186,7 +6186,7 @@
       <c r="AG124" s="14"/>
       <c r="AH124" s="14"/>
     </row>
-    <row r="125" spans="1:34" ht="17" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:34" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A125" s="7"/>
       <c r="B125" s="7"/>
       <c r="C125" s="7"/>
@@ -6230,7 +6230,7 @@
       <c r="AG125" s="14"/>
       <c r="AH125" s="14"/>
     </row>
-    <row r="126" spans="1:34" ht="17" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:34" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A126" s="7"/>
       <c r="B126" s="7"/>
       <c r="C126" s="7"/>
@@ -6274,7 +6274,7 @@
       <c r="AG126" s="14"/>
       <c r="AH126" s="14"/>
     </row>
-    <row r="127" spans="1:34" ht="17" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:34" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A127" s="7"/>
       <c r="B127" s="7"/>
       <c r="C127" s="7"/>
@@ -6318,7 +6318,7 @@
       <c r="AG127" s="14"/>
       <c r="AH127" s="14"/>
     </row>
-    <row r="128" spans="1:34" ht="17" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:34" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A128" s="7"/>
       <c r="B128" s="7"/>
       <c r="C128" s="7"/>
@@ -6362,7 +6362,7 @@
       <c r="AG128" s="14"/>
       <c r="AH128" s="14"/>
     </row>
-    <row r="129" spans="1:34" ht="17" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:34" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A129" s="7"/>
       <c r="B129" s="7"/>
       <c r="C129" s="7"/>
@@ -6406,7 +6406,7 @@
       <c r="AG129" s="14"/>
       <c r="AH129" s="14"/>
     </row>
-    <row r="130" spans="1:34" ht="17" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:34" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A130" s="7"/>
       <c r="B130" s="7"/>
       <c r="C130" s="7"/>
@@ -6450,7 +6450,7 @@
       <c r="AG130" s="14"/>
       <c r="AH130" s="14"/>
     </row>
-    <row r="131" spans="1:34" ht="17" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:34" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A131" s="7"/>
       <c r="B131" s="7"/>
       <c r="C131" s="7"/>
@@ -6494,7 +6494,7 @@
       <c r="AG131" s="14"/>
       <c r="AH131" s="14"/>
     </row>
-    <row r="132" spans="1:34" ht="17" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:34" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A132" s="7"/>
       <c r="B132" s="7"/>
       <c r="C132" s="7"/>
@@ -6538,7 +6538,7 @@
       <c r="AG132" s="14"/>
       <c r="AH132" s="14"/>
     </row>
-    <row r="133" spans="1:34" ht="17" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:34" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A133" s="7"/>
       <c r="B133" s="7"/>
       <c r="C133" s="7"/>
@@ -6582,7 +6582,7 @@
       <c r="AG133" s="14"/>
       <c r="AH133" s="14"/>
     </row>
-    <row r="134" spans="1:34" ht="17" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:34" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A134" s="7"/>
       <c r="B134" s="7"/>
       <c r="C134" s="7"/>
@@ -6626,7 +6626,7 @@
       <c r="AG134" s="14"/>
       <c r="AH134" s="14"/>
     </row>
-    <row r="135" spans="1:34" ht="17" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:34" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A135" s="7"/>
       <c r="B135" s="7"/>
       <c r="C135" s="7"/>
@@ -6670,7 +6670,7 @@
       <c r="AG135" s="14"/>
       <c r="AH135" s="14"/>
     </row>
-    <row r="136" spans="1:34" ht="17" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:34" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A136" s="7"/>
       <c r="B136" s="7"/>
       <c r="C136" s="7"/>
@@ -6714,7 +6714,7 @@
       <c r="AG136" s="14"/>
       <c r="AH136" s="14"/>
     </row>
-    <row r="137" spans="1:34" ht="17" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:34" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A137" s="7"/>
       <c r="B137" s="7"/>
       <c r="C137" s="7"/>
@@ -6758,7 +6758,7 @@
       <c r="AG137" s="14"/>
       <c r="AH137" s="14"/>
     </row>
-    <row r="138" spans="1:34" ht="17" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:34" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A138" s="7"/>
       <c r="B138" s="7"/>
       <c r="C138" s="7"/>
@@ -6802,7 +6802,7 @@
       <c r="AG138" s="14"/>
       <c r="AH138" s="14"/>
     </row>
-    <row r="139" spans="1:34" ht="17" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:34" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A139" s="7"/>
       <c r="B139" s="7"/>
       <c r="C139" s="7"/>
@@ -6846,7 +6846,7 @@
       <c r="AG139" s="14"/>
       <c r="AH139" s="14"/>
     </row>
-    <row r="140" spans="1:34" ht="17" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:34" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A140" s="7"/>
       <c r="B140" s="7"/>
       <c r="C140" s="7"/>
@@ -6890,7 +6890,7 @@
       <c r="AG140" s="14"/>
       <c r="AH140" s="14"/>
     </row>
-    <row r="141" spans="1:34" ht="17" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:34" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A141" s="7"/>
       <c r="B141" s="7"/>
       <c r="C141" s="7"/>
@@ -6934,7 +6934,7 @@
       <c r="AG141" s="14"/>
       <c r="AH141" s="14"/>
     </row>
-    <row r="142" spans="1:34" ht="17" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:34" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A142" s="7"/>
       <c r="B142" s="7"/>
       <c r="C142" s="7"/>
@@ -6978,7 +6978,7 @@
       <c r="AG142" s="14"/>
       <c r="AH142" s="14"/>
     </row>
-    <row r="143" spans="1:34" ht="17" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:34" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A143" s="7"/>
       <c r="B143" s="7"/>
       <c r="C143" s="7"/>
@@ -7022,7 +7022,7 @@
       <c r="AG143" s="14"/>
       <c r="AH143" s="14"/>
     </row>
-    <row r="144" spans="1:34" ht="17" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:34" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A144" s="7"/>
       <c r="B144" s="7"/>
       <c r="C144" s="7"/>
@@ -7066,7 +7066,7 @@
       <c r="AG144" s="14"/>
       <c r="AH144" s="14"/>
     </row>
-    <row r="145" spans="1:34" ht="17" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:34" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A145" s="7"/>
       <c r="B145" s="7"/>
       <c r="C145" s="7"/>
@@ -7110,7 +7110,7 @@
       <c r="AG145" s="14"/>
       <c r="AH145" s="14"/>
     </row>
-    <row r="146" spans="1:34" ht="17" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:34" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A146" s="7"/>
       <c r="B146" s="7"/>
       <c r="C146" s="7"/>
@@ -7154,7 +7154,7 @@
       <c r="AG146" s="14"/>
       <c r="AH146" s="14"/>
     </row>
-    <row r="147" spans="1:34" ht="17" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:34" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A147" s="7"/>
       <c r="B147" s="7"/>
       <c r="C147" s="7"/>
@@ -7198,7 +7198,7 @@
       <c r="AG147" s="14"/>
       <c r="AH147" s="14"/>
     </row>
-    <row r="148" spans="1:34" ht="17" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:34" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A148" s="7"/>
       <c r="B148" s="7"/>
       <c r="C148" s="7"/>
@@ -7242,7 +7242,7 @@
       <c r="AG148" s="14"/>
       <c r="AH148" s="14"/>
     </row>
-    <row r="149" spans="1:34" ht="17" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:34" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A149" s="7"/>
       <c r="B149" s="7"/>
       <c r="C149" s="7"/>
@@ -7286,7 +7286,7 @@
       <c r="AG149" s="14"/>
       <c r="AH149" s="14"/>
     </row>
-    <row r="150" spans="1:34" ht="17" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:34" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A150" s="7"/>
       <c r="B150" s="7"/>
       <c r="C150" s="7"/>
@@ -7330,7 +7330,7 @@
       <c r="AG150" s="14"/>
       <c r="AH150" s="14"/>
     </row>
-    <row r="151" spans="1:34" ht="17" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:34" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A151" s="7"/>
       <c r="B151" s="7"/>
       <c r="C151" s="7"/>
@@ -7374,7 +7374,7 @@
       <c r="AG151" s="14"/>
       <c r="AH151" s="14"/>
     </row>
-    <row r="152" spans="1:34" ht="17" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:34" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A152" s="7"/>
       <c r="B152" s="7"/>
       <c r="C152" s="7"/>
@@ -7418,7 +7418,7 @@
       <c r="AG152" s="14"/>
       <c r="AH152" s="14"/>
     </row>
-    <row r="153" spans="1:34" ht="17" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:34" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A153" s="7"/>
       <c r="B153" s="7"/>
       <c r="C153" s="7"/>
@@ -7462,7 +7462,7 @@
       <c r="AG153" s="14"/>
       <c r="AH153" s="14"/>
     </row>
-    <row r="154" spans="1:34" ht="17" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:34" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A154" s="7"/>
       <c r="B154" s="7"/>
       <c r="C154" s="7"/>
@@ -7506,7 +7506,7 @@
       <c r="AG154" s="14"/>
       <c r="AH154" s="14"/>
     </row>
-    <row r="155" spans="1:34" ht="17" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:34" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A155" s="7"/>
       <c r="B155" s="7"/>
       <c r="C155" s="7"/>
@@ -7550,7 +7550,7 @@
       <c r="AG155" s="14"/>
       <c r="AH155" s="14"/>
     </row>
-    <row r="156" spans="1:34" ht="17" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:34" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A156" s="7"/>
       <c r="B156" s="7"/>
       <c r="C156" s="7"/>
@@ -7594,7 +7594,7 @@
       <c r="AG156" s="14"/>
       <c r="AH156" s="14"/>
     </row>
-    <row r="157" spans="1:34" ht="17" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:34" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A157" s="7"/>
       <c r="B157" s="7"/>
       <c r="C157" s="7"/>
@@ -7638,7 +7638,7 @@
       <c r="AG157" s="14"/>
       <c r="AH157" s="14"/>
     </row>
-    <row r="158" spans="1:34" ht="17" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:34" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A158" s="7"/>
       <c r="B158" s="7"/>
       <c r="C158" s="7"/>
@@ -7682,7 +7682,7 @@
       <c r="AG158" s="14"/>
       <c r="AH158" s="14"/>
     </row>
-    <row r="159" spans="1:34" ht="17" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:34" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A159" s="7"/>
       <c r="B159" s="7"/>
       <c r="C159" s="7"/>
@@ -7726,7 +7726,7 @@
       <c r="AG159" s="14"/>
       <c r="AH159" s="14"/>
     </row>
-    <row r="160" spans="1:34" ht="17" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:34" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A160" s="7"/>
       <c r="B160" s="7"/>
       <c r="C160" s="7"/>
@@ -7770,7 +7770,7 @@
       <c r="AG160" s="14"/>
       <c r="AH160" s="14"/>
     </row>
-    <row r="161" spans="1:34" ht="17" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:34" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A161" s="7"/>
       <c r="B161" s="7"/>
       <c r="C161" s="7"/>
@@ -7814,7 +7814,7 @@
       <c r="AG161" s="14"/>
       <c r="AH161" s="14"/>
     </row>
-    <row r="162" spans="1:34" ht="17" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:34" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A162" s="7"/>
       <c r="B162" s="7"/>
       <c r="C162" s="7"/>
@@ -7858,7 +7858,7 @@
       <c r="AG162" s="14"/>
       <c r="AH162" s="14"/>
     </row>
-    <row r="163" spans="1:34" ht="17" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:34" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A163" s="7"/>
       <c r="B163" s="7"/>
       <c r="C163" s="7"/>
@@ -7902,7 +7902,7 @@
       <c r="AG163" s="14"/>
       <c r="AH163" s="14"/>
     </row>
-    <row r="164" spans="1:34" ht="17" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:34" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A164" s="7"/>
       <c r="B164" s="7"/>
       <c r="C164" s="7"/>
@@ -7946,7 +7946,7 @@
       <c r="AG164" s="14"/>
       <c r="AH164" s="14"/>
     </row>
-    <row r="165" spans="1:34" ht="17" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:34" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A165" s="7"/>
       <c r="B165" s="7"/>
       <c r="C165" s="7"/>
@@ -7990,7 +7990,7 @@
       <c r="AG165" s="14"/>
       <c r="AH165" s="14"/>
     </row>
-    <row r="166" spans="1:34" ht="17" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:34" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A166" s="7"/>
       <c r="B166" s="7"/>
       <c r="C166" s="7"/>
@@ -8034,7 +8034,7 @@
       <c r="AG166" s="14"/>
       <c r="AH166" s="14"/>
     </row>
-    <row r="167" spans="1:34" ht="17" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:34" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A167" s="7"/>
       <c r="B167" s="7"/>
       <c r="C167" s="7"/>
@@ -8078,7 +8078,7 @@
       <c r="AG167" s="14"/>
       <c r="AH167" s="14"/>
     </row>
-    <row r="168" spans="1:34" ht="17" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:34" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A168" s="7"/>
       <c r="B168" s="7"/>
       <c r="C168" s="7"/>
@@ -8122,7 +8122,7 @@
       <c r="AG168" s="14"/>
       <c r="AH168" s="14"/>
     </row>
-    <row r="169" spans="1:34" ht="17" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:34" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A169" s="7"/>
       <c r="B169" s="7"/>
       <c r="C169" s="7"/>
@@ -8166,7 +8166,7 @@
       <c r="AG169" s="14"/>
       <c r="AH169" s="14"/>
     </row>
-    <row r="170" spans="1:34" ht="17" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:34" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A170" s="7"/>
       <c r="B170" s="7"/>
       <c r="C170" s="7"/>
@@ -8210,7 +8210,7 @@
       <c r="AG170" s="14"/>
       <c r="AH170" s="14"/>
     </row>
-    <row r="171" spans="1:34" ht="17" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:34" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A171" s="7"/>
       <c r="B171" s="7"/>
       <c r="C171" s="7"/>
@@ -8254,7 +8254,7 @@
       <c r="AG171" s="14"/>
       <c r="AH171" s="14"/>
     </row>
-    <row r="172" spans="1:34" ht="17" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:34" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A172" s="7"/>
       <c r="B172" s="7"/>
       <c r="C172" s="7"/>
@@ -8298,7 +8298,7 @@
       <c r="AG172" s="14"/>
       <c r="AH172" s="14"/>
     </row>
-    <row r="173" spans="1:34" ht="17" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:34" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A173" s="7"/>
       <c r="B173" s="7"/>
       <c r="C173" s="7"/>
@@ -8342,7 +8342,7 @@
       <c r="AG173" s="14"/>
       <c r="AH173" s="14"/>
     </row>
-    <row r="174" spans="1:34" ht="17" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:34" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A174" s="7"/>
       <c r="B174" s="7"/>
       <c r="C174" s="7"/>
@@ -8386,7 +8386,7 @@
       <c r="AG174" s="14"/>
       <c r="AH174" s="14"/>
     </row>
-    <row r="175" spans="1:34" ht="17" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:34" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A175" s="7"/>
       <c r="B175" s="7"/>
       <c r="C175" s="7"/>
@@ -8430,7 +8430,7 @@
       <c r="AG175" s="14"/>
       <c r="AH175" s="14"/>
     </row>
-    <row r="176" spans="1:34" ht="17" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:34" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A176" s="7"/>
       <c r="B176" s="7"/>
       <c r="C176" s="7"/>
@@ -8474,7 +8474,7 @@
       <c r="AG176" s="14"/>
       <c r="AH176" s="14"/>
     </row>
-    <row r="177" spans="1:34" ht="17" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:34" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A177" s="7"/>
       <c r="B177" s="7"/>
       <c r="C177" s="7"/>
@@ -8518,7 +8518,7 @@
       <c r="AG177" s="14"/>
       <c r="AH177" s="14"/>
     </row>
-    <row r="178" spans="1:34" ht="17" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:34" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A178" s="7"/>
       <c r="B178" s="7"/>
       <c r="C178" s="7"/>
@@ -8562,7 +8562,7 @@
       <c r="AG178" s="14"/>
       <c r="AH178" s="14"/>
     </row>
-    <row r="179" spans="1:34" ht="17" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:34" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A179" s="7"/>
       <c r="B179" s="7"/>
       <c r="C179" s="7"/>
@@ -8606,7 +8606,7 @@
       <c r="AG179" s="14"/>
       <c r="AH179" s="14"/>
     </row>
-    <row r="180" spans="1:34" ht="17" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:34" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A180" s="7"/>
       <c r="B180" s="7"/>
       <c r="C180" s="7"/>
@@ -8650,7 +8650,7 @@
       <c r="AG180" s="14"/>
       <c r="AH180" s="14"/>
     </row>
-    <row r="181" spans="1:34" ht="17" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:34" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A181" s="7"/>
       <c r="B181" s="7"/>
       <c r="C181" s="7"/>
@@ -8694,7 +8694,7 @@
       <c r="AG181" s="14"/>
       <c r="AH181" s="14"/>
     </row>
-    <row r="182" spans="1:34" ht="17" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:34" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A182" s="7"/>
       <c r="B182" s="7"/>
       <c r="C182" s="7"/>
@@ -8738,7 +8738,7 @@
       <c r="AG182" s="14"/>
       <c r="AH182" s="14"/>
     </row>
-    <row r="183" spans="1:34" ht="17" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:34" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A183" s="7"/>
       <c r="B183" s="7"/>
       <c r="C183" s="7"/>
@@ -8782,7 +8782,7 @@
       <c r="AG183" s="14"/>
       <c r="AH183" s="14"/>
     </row>
-    <row r="184" spans="1:34" ht="17" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:34" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A184" s="7"/>
       <c r="B184" s="7"/>
       <c r="C184" s="7"/>
@@ -8826,7 +8826,7 @@
       <c r="AG184" s="14"/>
       <c r="AH184" s="14"/>
     </row>
-    <row r="185" spans="1:34" ht="17" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:34" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A185" s="7"/>
       <c r="B185" s="7"/>
       <c r="C185" s="7"/>
@@ -8870,7 +8870,7 @@
       <c r="AG185" s="14"/>
       <c r="AH185" s="14"/>
     </row>
-    <row r="186" spans="1:34" ht="17" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:34" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A186" s="7"/>
       <c r="B186" s="7"/>
       <c r="C186" s="7"/>
@@ -8914,7 +8914,7 @@
       <c r="AG186" s="14"/>
       <c r="AH186" s="14"/>
     </row>
-    <row r="187" spans="1:34" ht="17" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:34" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A187" s="7"/>
       <c r="B187" s="7"/>
       <c r="C187" s="7"/>
@@ -8958,7 +8958,7 @@
       <c r="AG187" s="14"/>
       <c r="AH187" s="14"/>
     </row>
-    <row r="188" spans="1:34" ht="17" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:34" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A188" s="7"/>
       <c r="B188" s="7"/>
       <c r="C188" s="7"/>
@@ -9002,7 +9002,7 @@
       <c r="AG188" s="14"/>
       <c r="AH188" s="14"/>
     </row>
-    <row r="189" spans="1:34" ht="17" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:34" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A189" s="7"/>
       <c r="B189" s="7"/>
       <c r="C189" s="7"/>
@@ -9046,7 +9046,7 @@
       <c r="AG189" s="14"/>
       <c r="AH189" s="14"/>
     </row>
-    <row r="190" spans="1:34" ht="17" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:34" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A190" s="7"/>
       <c r="B190" s="7"/>
       <c r="C190" s="7"/>
@@ -9090,7 +9090,7 @@
       <c r="AG190" s="14"/>
       <c r="AH190" s="14"/>
     </row>
-    <row r="191" spans="1:34" ht="17" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:34" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A191" s="7"/>
       <c r="B191" s="7"/>
       <c r="C191" s="7"/>
@@ -9134,7 +9134,7 @@
       <c r="AG191" s="14"/>
       <c r="AH191" s="14"/>
     </row>
-    <row r="192" spans="1:34" ht="17" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:34" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A192" s="7"/>
       <c r="B192" s="7"/>
       <c r="C192" s="7"/>
@@ -9178,7 +9178,7 @@
       <c r="AG192" s="14"/>
       <c r="AH192" s="14"/>
     </row>
-    <row r="193" spans="1:34" ht="17" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:34" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A193" s="7"/>
       <c r="B193" s="7"/>
       <c r="C193" s="7"/>
@@ -9222,7 +9222,7 @@
       <c r="AG193" s="14"/>
       <c r="AH193" s="14"/>
     </row>
-    <row r="194" spans="1:34" ht="17" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:34" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A194" s="7"/>
       <c r="B194" s="7"/>
       <c r="C194" s="7"/>
@@ -9266,7 +9266,7 @@
       <c r="AG194" s="14"/>
       <c r="AH194" s="14"/>
     </row>
-    <row r="195" spans="1:34" ht="17" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:34" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A195" s="7"/>
       <c r="B195" s="7"/>
       <c r="C195" s="7"/>
@@ -9310,7 +9310,7 @@
       <c r="AG195" s="14"/>
       <c r="AH195" s="14"/>
     </row>
-    <row r="196" spans="1:34" ht="17" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:34" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A196" s="7"/>
       <c r="B196" s="7"/>
       <c r="C196" s="7"/>
@@ -9354,7 +9354,7 @@
       <c r="AG196" s="14"/>
       <c r="AH196" s="14"/>
     </row>
-    <row r="197" spans="1:34" ht="17" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:34" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A197" s="7"/>
       <c r="B197" s="7"/>
       <c r="C197" s="7"/>
@@ -9398,7 +9398,7 @@
       <c r="AG197" s="14"/>
       <c r="AH197" s="14"/>
     </row>
-    <row r="198" spans="1:34" ht="17" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:34" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A198" s="7"/>
       <c r="B198" s="7"/>
       <c r="C198" s="7"/>
@@ -9442,7 +9442,7 @@
       <c r="AG198" s="14"/>
       <c r="AH198" s="14"/>
     </row>
-    <row r="199" spans="1:34" ht="17" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:34" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A199" s="7"/>
       <c r="B199" s="7"/>
       <c r="C199" s="7"/>
@@ -9486,7 +9486,7 @@
       <c r="AG199" s="14"/>
       <c r="AH199" s="14"/>
     </row>
-    <row r="200" spans="1:34" ht="17" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:34" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A200" s="7"/>
       <c r="B200" s="7"/>
       <c r="C200" s="7"/>
@@ -9530,7 +9530,7 @@
       <c r="AG200" s="14"/>
       <c r="AH200" s="14"/>
     </row>
-    <row r="201" spans="1:34" ht="17" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:34" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A201" s="7"/>
       <c r="B201" s="7"/>
       <c r="C201" s="7"/>
@@ -9574,7 +9574,7 @@
       <c r="AG201" s="14"/>
       <c r="AH201" s="14"/>
     </row>
-    <row r="202" spans="1:34" ht="17" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:34" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A202" s="7"/>
       <c r="B202" s="7"/>
       <c r="C202" s="7"/>
@@ -9618,7 +9618,7 @@
       <c r="AG202" s="14"/>
       <c r="AH202" s="14"/>
     </row>
-    <row r="203" spans="1:34" ht="17" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:34" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A203" s="7"/>
       <c r="B203" s="7"/>
       <c r="C203" s="7"/>
@@ -9662,7 +9662,7 @@
       <c r="AG203" s="14"/>
       <c r="AH203" s="14"/>
     </row>
-    <row r="204" spans="1:34" ht="17" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:34" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A204" s="7"/>
       <c r="B204" s="7"/>
       <c r="C204" s="7"/>
@@ -9706,7 +9706,7 @@
       <c r="AG204" s="14"/>
       <c r="AH204" s="14"/>
     </row>
-    <row r="205" spans="1:34" ht="17" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:34" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A205" s="7"/>
       <c r="B205" s="7"/>
       <c r="C205" s="7"/>
@@ -9750,7 +9750,7 @@
       <c r="AG205" s="14"/>
       <c r="AH205" s="14"/>
     </row>
-    <row r="206" spans="1:34" ht="17" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:34" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A206" s="7"/>
       <c r="B206" s="7"/>
       <c r="C206" s="7"/>
@@ -9794,7 +9794,7 @@
       <c r="AG206" s="14"/>
       <c r="AH206" s="14"/>
     </row>
-    <row r="207" spans="1:34" ht="17" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:34" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A207" s="7"/>
       <c r="B207" s="7"/>
       <c r="C207" s="7"/>
@@ -9838,7 +9838,7 @@
       <c r="AG207" s="14"/>
       <c r="AH207" s="14"/>
     </row>
-    <row r="208" spans="1:34" ht="17" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:34" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A208" s="7"/>
       <c r="B208" s="7"/>
       <c r="C208" s="7"/>
@@ -9882,7 +9882,7 @@
       <c r="AG208" s="14"/>
       <c r="AH208" s="14"/>
     </row>
-    <row r="209" spans="1:34" ht="17" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:34" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A209" s="7"/>
       <c r="B209" s="7"/>
       <c r="C209" s="7"/>
@@ -9926,7 +9926,7 @@
       <c r="AG209" s="14"/>
       <c r="AH209" s="14"/>
     </row>
-    <row r="210" spans="1:34" ht="17" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:34" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A210" s="7"/>
       <c r="B210" s="7"/>
       <c r="C210" s="7"/>
@@ -9970,7 +9970,7 @@
       <c r="AG210" s="14"/>
       <c r="AH210" s="14"/>
     </row>
-    <row r="211" spans="1:34" ht="17" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:34" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A211" s="7"/>
       <c r="B211" s="7"/>
       <c r="C211" s="7"/>
@@ -10014,7 +10014,7 @@
       <c r="AG211" s="14"/>
       <c r="AH211" s="14"/>
     </row>
-    <row r="212" spans="1:34" ht="17" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:34" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A212" s="7"/>
       <c r="B212" s="7"/>
       <c r="C212" s="7"/>
@@ -10058,7 +10058,7 @@
       <c r="AG212" s="14"/>
       <c r="AH212" s="14"/>
     </row>
-    <row r="213" spans="1:34" ht="17" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:34" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A213" s="7"/>
       <c r="B213" s="7"/>
       <c r="C213" s="7"/>
@@ -10102,7 +10102,7 @@
       <c r="AG213" s="14"/>
       <c r="AH213" s="14"/>
     </row>
-    <row r="214" spans="1:34" ht="17" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:34" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A214" s="7"/>
       <c r="B214" s="7"/>
       <c r="C214" s="7"/>
@@ -10146,7 +10146,7 @@
       <c r="AG214" s="14"/>
       <c r="AH214" s="14"/>
     </row>
-    <row r="215" spans="1:34" ht="17" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:34" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A215" s="7"/>
       <c r="B215" s="7"/>
       <c r="C215" s="7"/>
@@ -10190,7 +10190,7 @@
       <c r="AG215" s="14"/>
       <c r="AH215" s="14"/>
     </row>
-    <row r="216" spans="1:34" ht="17" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:34" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A216" s="7"/>
       <c r="B216" s="7"/>
       <c r="C216" s="7"/>
@@ -10234,7 +10234,7 @@
       <c r="AG216" s="14"/>
       <c r="AH216" s="14"/>
     </row>
-    <row r="217" spans="1:34" ht="17" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:34" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A217" s="7"/>
       <c r="B217" s="7"/>
       <c r="C217" s="7"/>
@@ -10278,7 +10278,7 @@
       <c r="AG217" s="14"/>
       <c r="AH217" s="14"/>
     </row>
-    <row r="218" spans="1:34" ht="17" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:34" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A218" s="7"/>
       <c r="B218" s="7"/>
       <c r="C218" s="7"/>
@@ -10322,7 +10322,7 @@
       <c r="AG218" s="14"/>
       <c r="AH218" s="14"/>
     </row>
-    <row r="219" spans="1:34" ht="17" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:34" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A219" s="7"/>
       <c r="B219" s="7"/>
       <c r="C219" s="7"/>
@@ -10366,7 +10366,7 @@
       <c r="AG219" s="14"/>
       <c r="AH219" s="14"/>
     </row>
-    <row r="220" spans="1:34" ht="17" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:34" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A220" s="7"/>
       <c r="B220" s="7"/>
       <c r="C220" s="7"/>
@@ -10410,7 +10410,7 @@
       <c r="AG220" s="14"/>
       <c r="AH220" s="14"/>
     </row>
-    <row r="221" spans="1:34" ht="17" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:34" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A221" s="7"/>
       <c r="B221" s="7"/>
       <c r="C221" s="7"/>
@@ -10454,7 +10454,7 @@
       <c r="AG221" s="14"/>
       <c r="AH221" s="14"/>
     </row>
-    <row r="222" spans="1:34" ht="17" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:34" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A222" s="7"/>
       <c r="B222" s="7"/>
       <c r="C222" s="7"/>
@@ -10498,7 +10498,7 @@
       <c r="AG222" s="14"/>
       <c r="AH222" s="14"/>
     </row>
-    <row r="223" spans="1:34" ht="17" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:34" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A223" s="7"/>
       <c r="B223" s="7"/>
       <c r="C223" s="7"/>
@@ -10542,7 +10542,7 @@
       <c r="AG223" s="14"/>
       <c r="AH223" s="14"/>
     </row>
-    <row r="224" spans="1:34" ht="17" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:34" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A224" s="7"/>
       <c r="B224" s="7"/>
       <c r="C224" s="7"/>
@@ -10586,7 +10586,7 @@
       <c r="AG224" s="14"/>
       <c r="AH224" s="14"/>
     </row>
-    <row r="225" spans="1:34" ht="17" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:34" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A225" s="7"/>
       <c r="B225" s="7"/>
       <c r="C225" s="7"/>
@@ -10630,7 +10630,7 @@
       <c r="AG225" s="14"/>
       <c r="AH225" s="14"/>
     </row>
-    <row r="226" spans="1:34" ht="17" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:34" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A226" s="7"/>
       <c r="B226" s="7"/>
       <c r="C226" s="7"/>
@@ -10674,7 +10674,7 @@
       <c r="AG226" s="14"/>
       <c r="AH226" s="14"/>
     </row>
-    <row r="227" spans="1:34" ht="17" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:34" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A227" s="7"/>
       <c r="B227" s="7"/>
       <c r="C227" s="7"/>
@@ -10718,7 +10718,7 @@
       <c r="AG227" s="14"/>
       <c r="AH227" s="14"/>
     </row>
-    <row r="228" spans="1:34" ht="17" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:34" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A228" s="7"/>
       <c r="B228" s="7"/>
       <c r="C228" s="7"/>
@@ -10762,7 +10762,7 @@
       <c r="AG228" s="14"/>
       <c r="AH228" s="14"/>
     </row>
-    <row r="229" spans="1:34" ht="17" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:34" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A229" s="7"/>
       <c r="B229" s="7"/>
       <c r="C229" s="7"/>
@@ -10806,7 +10806,7 @@
       <c r="AG229" s="14"/>
       <c r="AH229" s="14"/>
     </row>
-    <row r="230" spans="1:34" ht="17" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:34" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A230" s="7"/>
       <c r="B230" s="7"/>
       <c r="C230" s="7"/>
@@ -10850,7 +10850,7 @@
       <c r="AG230" s="14"/>
       <c r="AH230" s="14"/>
     </row>
-    <row r="231" spans="1:34" ht="17" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:34" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A231" s="7"/>
       <c r="B231" s="7"/>
       <c r="C231" s="7"/>
@@ -10894,7 +10894,7 @@
       <c r="AG231" s="14"/>
       <c r="AH231" s="14"/>
     </row>
-    <row r="232" spans="1:34" ht="17" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:34" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A232" s="7"/>
       <c r="B232" s="7"/>
       <c r="C232" s="7"/>
@@ -10938,7 +10938,7 @@
       <c r="AG232" s="14"/>
       <c r="AH232" s="14"/>
     </row>
-    <row r="233" spans="1:34" ht="17" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:34" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A233" s="7"/>
       <c r="B233" s="7"/>
       <c r="C233" s="7"/>
@@ -10982,7 +10982,7 @@
       <c r="AG233" s="14"/>
       <c r="AH233" s="14"/>
     </row>
-    <row r="234" spans="1:34" ht="17" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:34" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A234" s="7"/>
       <c r="B234" s="7"/>
       <c r="C234" s="7"/>
@@ -11026,7 +11026,7 @@
       <c r="AG234" s="14"/>
       <c r="AH234" s="14"/>
     </row>
-    <row r="235" spans="1:34" ht="17" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:34" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A235" s="7"/>
       <c r="B235" s="7"/>
       <c r="C235" s="7"/>
@@ -11070,7 +11070,7 @@
       <c r="AG235" s="14"/>
       <c r="AH235" s="14"/>
     </row>
-    <row r="236" spans="1:34" ht="17" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:34" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A236" s="7"/>
       <c r="B236" s="7"/>
       <c r="C236" s="7"/>
@@ -11114,7 +11114,7 @@
       <c r="AG236" s="14"/>
       <c r="AH236" s="14"/>
     </row>
-    <row r="237" spans="1:34" ht="17" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:34" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A237" s="7"/>
       <c r="B237" s="7"/>
       <c r="C237" s="7"/>
@@ -11158,7 +11158,7 @@
       <c r="AG237" s="14"/>
       <c r="AH237" s="14"/>
     </row>
-    <row r="238" spans="1:34" ht="17" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:34" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A238" s="7"/>
       <c r="B238" s="7"/>
       <c r="C238" s="7"/>
@@ -11202,7 +11202,7 @@
       <c r="AG238" s="14"/>
       <c r="AH238" s="14"/>
     </row>
-    <row r="239" spans="1:34" ht="17" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:34" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A239" s="7"/>
       <c r="B239" s="7"/>
       <c r="C239" s="7"/>
@@ -11246,7 +11246,7 @@
       <c r="AG239" s="14"/>
       <c r="AH239" s="14"/>
     </row>
-    <row r="240" spans="1:34" ht="17" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:34" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A240" s="7"/>
       <c r="B240" s="7"/>
       <c r="C240" s="7"/>
@@ -11290,7 +11290,7 @@
       <c r="AG240" s="14"/>
       <c r="AH240" s="14"/>
     </row>
-    <row r="241" spans="1:34" ht="17" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:34" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A241" s="7"/>
       <c r="B241" s="7"/>
       <c r="C241" s="7"/>
@@ -11334,7 +11334,7 @@
       <c r="AG241" s="14"/>
       <c r="AH241" s="14"/>
     </row>
-    <row r="242" spans="1:34" ht="17" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:34" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A242" s="7"/>
       <c r="B242" s="7"/>
       <c r="C242" s="7"/>
@@ -11378,7 +11378,7 @@
       <c r="AG242" s="14"/>
       <c r="AH242" s="14"/>
     </row>
-    <row r="243" spans="1:34" ht="17" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:34" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A243" s="7"/>
       <c r="B243" s="7"/>
       <c r="C243" s="7"/>
@@ -11422,7 +11422,7 @@
       <c r="AG243" s="14"/>
       <c r="AH243" s="14"/>
     </row>
-    <row r="244" spans="1:34" ht="17" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:34" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A244" s="7"/>
       <c r="B244" s="7"/>
       <c r="C244" s="7"/>
@@ -11466,7 +11466,7 @@
       <c r="AG244" s="14"/>
       <c r="AH244" s="14"/>
     </row>
-    <row r="245" spans="1:34" ht="17" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:34" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A245" s="7"/>
       <c r="B245" s="7"/>
       <c r="C245" s="7"/>
@@ -11510,7 +11510,7 @@
       <c r="AG245" s="14"/>
       <c r="AH245" s="14"/>
     </row>
-    <row r="246" spans="1:34" ht="17" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:34" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A246" s="7"/>
       <c r="B246" s="7"/>
       <c r="C246" s="7"/>
@@ -11554,7 +11554,7 @@
       <c r="AG246" s="14"/>
       <c r="AH246" s="14"/>
     </row>
-    <row r="247" spans="1:34" ht="17" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:34" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A247" s="7"/>
       <c r="B247" s="7"/>
       <c r="C247" s="7"/>
@@ -11598,7 +11598,7 @@
       <c r="AG247" s="14"/>
       <c r="AH247" s="14"/>
     </row>
-    <row r="248" spans="1:34" ht="17" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:34" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A248" s="7"/>
       <c r="B248" s="7"/>
       <c r="C248" s="7"/>
@@ -11642,7 +11642,7 @@
       <c r="AG248" s="14"/>
       <c r="AH248" s="14"/>
     </row>
-    <row r="249" spans="1:34" ht="17" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:34" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A249" s="7"/>
       <c r="B249" s="7"/>
       <c r="C249" s="7"/>
@@ -11686,7 +11686,7 @@
       <c r="AG249" s="14"/>
       <c r="AH249" s="14"/>
     </row>
-    <row r="250" spans="1:34" ht="17" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:34" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A250" s="7"/>
       <c r="B250" s="7"/>
       <c r="C250" s="7"/>
@@ -11730,7 +11730,7 @@
       <c r="AG250" s="14"/>
       <c r="AH250" s="14"/>
     </row>
-    <row r="251" spans="1:34" ht="17" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:34" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A251" s="7"/>
       <c r="B251" s="7"/>
       <c r="C251" s="7"/>
@@ -11774,7 +11774,7 @@
       <c r="AG251" s="14"/>
       <c r="AH251" s="14"/>
     </row>
-    <row r="252" spans="1:34" ht="17" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:34" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A252" s="7"/>
       <c r="B252" s="7"/>
       <c r="C252" s="7"/>
@@ -11818,7 +11818,7 @@
       <c r="AG252" s="14"/>
       <c r="AH252" s="14"/>
     </row>
-    <row r="253" spans="1:34" ht="17" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:34" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A253" s="7"/>
       <c r="B253" s="7"/>
       <c r="C253" s="7"/>
@@ -11862,7 +11862,7 @@
       <c r="AG253" s="14"/>
       <c r="AH253" s="14"/>
     </row>
-    <row r="254" spans="1:34" ht="17" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:34" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A254" s="7"/>
       <c r="B254" s="7"/>
       <c r="C254" s="7"/>
@@ -11906,7 +11906,7 @@
       <c r="AG254" s="14"/>
       <c r="AH254" s="14"/>
     </row>
-    <row r="255" spans="1:34" ht="17" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:34" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A255" s="7"/>
       <c r="B255" s="7"/>
       <c r="C255" s="7"/>
@@ -11950,7 +11950,7 @@
       <c r="AG255" s="14"/>
       <c r="AH255" s="14"/>
     </row>
-    <row r="256" spans="1:34" ht="17" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:34" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A256" s="7"/>
       <c r="B256" s="7"/>
       <c r="C256" s="7"/>
@@ -11994,7 +11994,7 @@
       <c r="AG256" s="14"/>
       <c r="AH256" s="14"/>
     </row>
-    <row r="257" spans="1:34" ht="17" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:34" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A257" s="7"/>
       <c r="B257" s="7"/>
       <c r="C257" s="7"/>
@@ -12038,7 +12038,7 @@
       <c r="AG257" s="14"/>
       <c r="AH257" s="14"/>
     </row>
-    <row r="258" spans="1:34" ht="17" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:34" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A258" s="7"/>
       <c r="B258" s="7"/>
       <c r="C258" s="7"/>
@@ -12082,7 +12082,7 @@
       <c r="AG258" s="14"/>
       <c r="AH258" s="14"/>
     </row>
-    <row r="259" spans="1:34" ht="17" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:34" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A259" s="7"/>
       <c r="B259" s="7"/>
       <c r="C259" s="7"/>
@@ -12126,7 +12126,7 @@
       <c r="AG259" s="14"/>
       <c r="AH259" s="14"/>
     </row>
-    <row r="260" spans="1:34" ht="17" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:34" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A260" s="7"/>
       <c r="B260" s="7"/>
       <c r="C260" s="7"/>
@@ -12170,7 +12170,7 @@
       <c r="AG260" s="14"/>
       <c r="AH260" s="14"/>
     </row>
-    <row r="261" spans="1:34" ht="17" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:34" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A261" s="7"/>
       <c r="B261" s="7"/>
       <c r="C261" s="7"/>
@@ -12214,7 +12214,7 @@
       <c r="AG261" s="14"/>
       <c r="AH261" s="14"/>
     </row>
-    <row r="262" spans="1:34" ht="17" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:34" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A262" s="7"/>
       <c r="B262" s="7"/>
       <c r="C262" s="7"/>
@@ -12258,7 +12258,7 @@
       <c r="AG262" s="14"/>
       <c r="AH262" s="14"/>
     </row>
-    <row r="263" spans="1:34" ht="17" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:34" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A263" s="7"/>
       <c r="B263" s="7"/>
       <c r="C263" s="7"/>
@@ -12302,7 +12302,7 @@
       <c r="AG263" s="14"/>
       <c r="AH263" s="14"/>
     </row>
-    <row r="264" spans="1:34" ht="17" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:34" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A264" s="7"/>
       <c r="B264" s="7"/>
       <c r="C264" s="7"/>
@@ -12346,7 +12346,7 @@
       <c r="AG264" s="14"/>
       <c r="AH264" s="14"/>
     </row>
-    <row r="265" spans="1:34" ht="17" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:34" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A265" s="7"/>
       <c r="B265" s="7"/>
       <c r="C265" s="7"/>
@@ -12390,7 +12390,7 @@
       <c r="AG265" s="14"/>
       <c r="AH265" s="14"/>
     </row>
-    <row r="266" spans="1:34" ht="17" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:34" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A266" s="7"/>
       <c r="B266" s="7"/>
       <c r="C266" s="7"/>
@@ -12434,7 +12434,7 @@
       <c r="AG266" s="14"/>
       <c r="AH266" s="14"/>
     </row>
-    <row r="267" spans="1:34" ht="17" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:34" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A267" s="7"/>
       <c r="B267" s="7"/>
       <c r="C267" s="7"/>
@@ -12478,7 +12478,7 @@
       <c r="AG267" s="14"/>
       <c r="AH267" s="14"/>
     </row>
-    <row r="268" spans="1:34" ht="17" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:34" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A268" s="7"/>
       <c r="B268" s="7"/>
       <c r="C268" s="7"/>
@@ -12522,7 +12522,7 @@
       <c r="AG268" s="14"/>
       <c r="AH268" s="14"/>
     </row>
-    <row r="269" spans="1:34" ht="17" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:34" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A269" s="7"/>
       <c r="B269" s="7"/>
       <c r="C269" s="7"/>
@@ -12566,7 +12566,7 @@
       <c r="AG269" s="14"/>
       <c r="AH269" s="14"/>
     </row>
-    <row r="270" spans="1:34" ht="17" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:34" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A270" s="7"/>
       <c r="B270" s="7"/>
       <c r="C270" s="7"/>
@@ -12610,7 +12610,7 @@
       <c r="AG270" s="14"/>
       <c r="AH270" s="14"/>
     </row>
-    <row r="271" spans="1:34" ht="17" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:34" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A271" s="7"/>
       <c r="B271" s="7"/>
       <c r="C271" s="7"/>
@@ -12654,7 +12654,7 @@
       <c r="AG271" s="14"/>
       <c r="AH271" s="14"/>
     </row>
-    <row r="272" spans="1:34" ht="17" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:34" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A272" s="7"/>
       <c r="B272" s="7"/>
       <c r="C272" s="7"/>
@@ -12698,7 +12698,7 @@
       <c r="AG272" s="14"/>
       <c r="AH272" s="14"/>
     </row>
-    <row r="273" spans="1:34" ht="17" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:34" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A273" s="7"/>
       <c r="B273" s="7"/>
       <c r="C273" s="7"/>
@@ -12742,7 +12742,7 @@
       <c r="AG273" s="14"/>
       <c r="AH273" s="14"/>
     </row>
-    <row r="274" spans="1:34" ht="17" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:34" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A274" s="7"/>
       <c r="B274" s="7"/>
       <c r="C274" s="7"/>
@@ -12786,7 +12786,7 @@
       <c r="AG274" s="14"/>
       <c r="AH274" s="14"/>
     </row>
-    <row r="275" spans="1:34" ht="17" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:34" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A275" s="7"/>
       <c r="B275" s="7"/>
       <c r="C275" s="7"/>
@@ -12830,7 +12830,7 @@
       <c r="AG275" s="14"/>
       <c r="AH275" s="14"/>
     </row>
-    <row r="276" spans="1:34" ht="17" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:34" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A276" s="7"/>
       <c r="B276" s="7"/>
       <c r="C276" s="7"/>
@@ -12874,7 +12874,7 @@
       <c r="AG276" s="14"/>
       <c r="AH276" s="14"/>
     </row>
-    <row r="277" spans="1:34" ht="17" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:34" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A277" s="7"/>
       <c r="B277" s="7"/>
       <c r="C277" s="7"/>
@@ -12918,7 +12918,7 @@
       <c r="AG277" s="14"/>
       <c r="AH277" s="14"/>
     </row>
-    <row r="278" spans="1:34" ht="17" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:34" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A278" s="7"/>
       <c r="B278" s="7"/>
       <c r="C278" s="7"/>
@@ -12962,7 +12962,7 @@
       <c r="AG278" s="14"/>
       <c r="AH278" s="14"/>
     </row>
-    <row r="279" spans="1:34" ht="17" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:34" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A279" s="7"/>
       <c r="B279" s="7"/>
       <c r="C279" s="7"/>
@@ -13006,7 +13006,7 @@
       <c r="AG279" s="14"/>
       <c r="AH279" s="14"/>
     </row>
-    <row r="280" spans="1:34" ht="17" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:34" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A280" s="7"/>
       <c r="B280" s="7"/>
       <c r="C280" s="7"/>
@@ -13050,7 +13050,7 @@
       <c r="AG280" s="14"/>
       <c r="AH280" s="14"/>
     </row>
-    <row r="281" spans="1:34" ht="17" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:34" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A281" s="7"/>
       <c r="B281" s="7"/>
       <c r="C281" s="7"/>
@@ -13094,7 +13094,7 @@
       <c r="AG281" s="14"/>
       <c r="AH281" s="14"/>
     </row>
-    <row r="282" spans="1:34" ht="17" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:34" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A282" s="7"/>
       <c r="B282" s="7"/>
       <c r="C282" s="7"/>
@@ -13138,7 +13138,7 @@
       <c r="AG282" s="14"/>
       <c r="AH282" s="14"/>
     </row>
-    <row r="283" spans="1:34" ht="17" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:34" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A283" s="7"/>
       <c r="B283" s="7"/>
       <c r="C283" s="7"/>
@@ -13182,7 +13182,7 @@
       <c r="AG283" s="14"/>
       <c r="AH283" s="14"/>
     </row>
-    <row r="284" spans="1:34" ht="17" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:34" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A284" s="7"/>
       <c r="B284" s="7"/>
       <c r="C284" s="7"/>
@@ -13226,7 +13226,7 @@
       <c r="AG284" s="14"/>
       <c r="AH284" s="14"/>
     </row>
-    <row r="285" spans="1:34" ht="17" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:34" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A285" s="7"/>
       <c r="B285" s="7"/>
       <c r="C285" s="7"/>
@@ -13270,7 +13270,7 @@
       <c r="AG285" s="14"/>
       <c r="AH285" s="14"/>
     </row>
-    <row r="286" spans="1:34" ht="17" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:34" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A286" s="7"/>
       <c r="B286" s="7"/>
       <c r="C286" s="7"/>
@@ -13314,7 +13314,7 @@
       <c r="AG286" s="14"/>
       <c r="AH286" s="14"/>
     </row>
-    <row r="287" spans="1:34" ht="17" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:34" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A287" s="7"/>
       <c r="B287" s="7"/>
       <c r="C287" s="7"/>
@@ -13358,7 +13358,7 @@
       <c r="AG287" s="14"/>
       <c r="AH287" s="14"/>
     </row>
-    <row r="288" spans="1:34" ht="17" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:34" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A288" s="7"/>
       <c r="B288" s="7"/>
       <c r="C288" s="7"/>
@@ -13402,7 +13402,7 @@
       <c r="AG288" s="14"/>
       <c r="AH288" s="14"/>
     </row>
-    <row r="289" spans="1:34" ht="17" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:34" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A289" s="7"/>
       <c r="B289" s="7"/>
       <c r="C289" s="7"/>
@@ -13446,7 +13446,7 @@
       <c r="AG289" s="14"/>
       <c r="AH289" s="14"/>
     </row>
-    <row r="290" spans="1:34" ht="17" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:34" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A290" s="7"/>
       <c r="B290" s="7"/>
       <c r="C290" s="7"/>
@@ -13490,7 +13490,7 @@
       <c r="AG290" s="14"/>
       <c r="AH290" s="14"/>
     </row>
-    <row r="291" spans="1:34" ht="17" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:34" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A291" s="7"/>
       <c r="B291" s="7"/>
       <c r="C291" s="7"/>
@@ -13534,7 +13534,7 @@
       <c r="AG291" s="14"/>
       <c r="AH291" s="14"/>
     </row>
-    <row r="292" spans="1:34" ht="17" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:34" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A292" s="7"/>
       <c r="B292" s="7"/>
       <c r="C292" s="7"/>
@@ -13578,7 +13578,7 @@
       <c r="AG292" s="14"/>
       <c r="AH292" s="14"/>
     </row>
-    <row r="293" spans="1:34" ht="17" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:34" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A293" s="7"/>
       <c r="B293" s="7"/>
       <c r="C293" s="7"/>
@@ -13622,7 +13622,7 @@
       <c r="AG293" s="14"/>
       <c r="AH293" s="14"/>
     </row>
-    <row r="294" spans="1:34" ht="17" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:34" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A294" s="7"/>
       <c r="B294" s="7"/>
       <c r="C294" s="7"/>
@@ -13666,7 +13666,7 @@
       <c r="AG294" s="14"/>
       <c r="AH294" s="14"/>
     </row>
-    <row r="295" spans="1:34" ht="17" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:34" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A295" s="7"/>
       <c r="B295" s="7"/>
       <c r="C295" s="7"/>
@@ -13710,7 +13710,7 @@
       <c r="AG295" s="14"/>
       <c r="AH295" s="14"/>
     </row>
-    <row r="296" spans="1:34" ht="17" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:34" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A296" s="7"/>
       <c r="B296" s="7"/>
       <c r="C296" s="7"/>
@@ -13754,7 +13754,7 @@
       <c r="AG296" s="14"/>
       <c r="AH296" s="14"/>
     </row>
-    <row r="297" spans="1:34" ht="17" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:34" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A297" s="7"/>
       <c r="B297" s="7"/>
       <c r="C297" s="7"/>
@@ -13798,7 +13798,7 @@
       <c r="AG297" s="14"/>
       <c r="AH297" s="14"/>
     </row>
-    <row r="298" spans="1:34" ht="17" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:34" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A298" s="7"/>
       <c r="B298" s="7"/>
       <c r="C298" s="7"/>
@@ -13842,7 +13842,7 @@
       <c r="AG298" s="14"/>
       <c r="AH298" s="14"/>
     </row>
-    <row r="299" spans="1:34" ht="17" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:34" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A299" s="7"/>
       <c r="B299" s="7"/>
       <c r="C299" s="7"/>
@@ -13886,7 +13886,7 @@
       <c r="AG299" s="14"/>
       <c r="AH299" s="14"/>
     </row>
-    <row r="300" spans="1:34" ht="17" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:34" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A300" s="7"/>
       <c r="B300" s="7"/>
       <c r="C300" s="7"/>
@@ -13930,7 +13930,7 @@
       <c r="AG300" s="14"/>
       <c r="AH300" s="14"/>
     </row>
-    <row r="301" spans="1:34" ht="17" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:34" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A301" s="7"/>
       <c r="B301" s="7"/>
       <c r="C301" s="7"/>
@@ -13974,7 +13974,7 @@
       <c r="AG301" s="14"/>
       <c r="AH301" s="14"/>
     </row>
-    <row r="302" spans="1:34" ht="17" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:34" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A302" s="7"/>
       <c r="B302" s="7"/>
       <c r="C302" s="7"/>
@@ -14018,7 +14018,7 @@
       <c r="AG302" s="14"/>
       <c r="AH302" s="14"/>
     </row>
-    <row r="303" spans="1:34" ht="17" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:34" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A303" s="7"/>
       <c r="B303" s="7"/>
       <c r="C303" s="7"/>
@@ -14062,7 +14062,7 @@
       <c r="AG303" s="14"/>
       <c r="AH303" s="14"/>
     </row>
-    <row r="304" spans="1:34" ht="17" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:34" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A304" s="7"/>
       <c r="B304" s="7"/>
       <c r="C304" s="7"/>
@@ -14106,7 +14106,7 @@
       <c r="AG304" s="14"/>
       <c r="AH304" s="14"/>
     </row>
-    <row r="305" spans="1:34" ht="17" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:34" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A305" s="7"/>
       <c r="B305" s="7"/>
       <c r="C305" s="7"/>
@@ -14150,7 +14150,7 @@
       <c r="AG305" s="14"/>
       <c r="AH305" s="14"/>
     </row>
-    <row r="306" spans="1:34" ht="17" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:34" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A306" s="7"/>
       <c r="B306" s="7"/>
       <c r="C306" s="7"/>
@@ -14194,7 +14194,7 @@
       <c r="AG306" s="14"/>
       <c r="AH306" s="14"/>
     </row>
-    <row r="307" spans="1:34" ht="17" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:34" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A307" s="7"/>
       <c r="B307" s="7"/>
       <c r="C307" s="7"/>
@@ -14238,7 +14238,7 @@
       <c r="AG307" s="14"/>
       <c r="AH307" s="14"/>
     </row>
-    <row r="308" spans="1:34" ht="17" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:34" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A308" s="7"/>
       <c r="B308" s="7"/>
       <c r="C308" s="7"/>
@@ -14282,7 +14282,7 @@
       <c r="AG308" s="14"/>
       <c r="AH308" s="14"/>
     </row>
-    <row r="309" spans="1:34" ht="17" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:34" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A309" s="7"/>
       <c r="B309" s="7"/>
       <c r="C309" s="7"/>
@@ -14326,7 +14326,7 @@
       <c r="AG309" s="14"/>
       <c r="AH309" s="14"/>
     </row>
-    <row r="310" spans="1:34" ht="17" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:34" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A310" s="7"/>
       <c r="B310" s="7"/>
       <c r="C310" s="7"/>
@@ -14370,7 +14370,7 @@
       <c r="AG310" s="14"/>
       <c r="AH310" s="14"/>
     </row>
-    <row r="311" spans="1:34" ht="17" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:34" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A311" s="7"/>
       <c r="B311" s="7"/>
       <c r="C311" s="7"/>
@@ -14414,7 +14414,7 @@
       <c r="AG311" s="14"/>
       <c r="AH311" s="14"/>
     </row>
-    <row r="312" spans="1:34" ht="17" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:34" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A312" s="7"/>
       <c r="B312" s="7"/>
       <c r="C312" s="7"/>
@@ -14458,7 +14458,7 @@
       <c r="AG312" s="14"/>
       <c r="AH312" s="14"/>
     </row>
-    <row r="313" spans="1:34" ht="17" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:34" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A313" s="7"/>
       <c r="B313" s="7"/>
       <c r="C313" s="7"/>
@@ -14502,7 +14502,7 @@
       <c r="AG313" s="14"/>
       <c r="AH313" s="14"/>
     </row>
-    <row r="314" spans="1:34" ht="17" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:34" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A314" s="7"/>
       <c r="B314" s="7"/>
       <c r="C314" s="7"/>
@@ -14546,7 +14546,7 @@
       <c r="AG314" s="14"/>
       <c r="AH314" s="14"/>
     </row>
-    <row r="315" spans="1:34" ht="17" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:34" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A315" s="7"/>
       <c r="B315" s="7"/>
       <c r="C315" s="7"/>
@@ -14590,7 +14590,7 @@
       <c r="AG315" s="14"/>
       <c r="AH315" s="14"/>
     </row>
-    <row r="316" spans="1:34" ht="17" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:34" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A316" s="7"/>
       <c r="B316" s="7"/>
       <c r="C316" s="7"/>
@@ -14634,7 +14634,7 @@
       <c r="AG316" s="14"/>
       <c r="AH316" s="14"/>
     </row>
-    <row r="317" spans="1:34" ht="17" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:34" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A317" s="7"/>
       <c r="B317" s="7"/>
       <c r="C317" s="7"/>
@@ -14678,7 +14678,7 @@
       <c r="AG317" s="14"/>
       <c r="AH317" s="14"/>
     </row>
-    <row r="318" spans="1:34" ht="17" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:34" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A318" s="7"/>
       <c r="B318" s="7"/>
       <c r="C318" s="7"/>
@@ -14722,7 +14722,7 @@
       <c r="AG318" s="14"/>
       <c r="AH318" s="14"/>
     </row>
-    <row r="319" spans="1:34" ht="17" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:34" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A319" s="7"/>
       <c r="B319" s="7"/>
       <c r="C319" s="7"/>
@@ -14766,7 +14766,7 @@
       <c r="AG319" s="14"/>
       <c r="AH319" s="14"/>
     </row>
-    <row r="320" spans="1:34" ht="17" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:34" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A320" s="7"/>
       <c r="B320" s="7"/>
       <c r="C320" s="7"/>
@@ -14810,7 +14810,7 @@
       <c r="AG320" s="14"/>
       <c r="AH320" s="14"/>
     </row>
-    <row r="321" spans="1:34" ht="17" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:34" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A321" s="7"/>
       <c r="B321" s="7"/>
       <c r="C321" s="7"/>
@@ -14854,7 +14854,7 @@
       <c r="AG321" s="14"/>
       <c r="AH321" s="14"/>
     </row>
-    <row r="322" spans="1:34" ht="17" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:34" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A322" s="7"/>
       <c r="B322" s="7"/>
       <c r="C322" s="7"/>
@@ -14898,7 +14898,7 @@
       <c r="AG322" s="14"/>
       <c r="AH322" s="14"/>
     </row>
-    <row r="323" spans="1:34" ht="17" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:34" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A323" s="7"/>
       <c r="B323" s="7"/>
       <c r="C323" s="7"/>
@@ -14942,7 +14942,7 @@
       <c r="AG323" s="14"/>
       <c r="AH323" s="14"/>
     </row>
-    <row r="324" spans="1:34" ht="17" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:34" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A324" s="7"/>
       <c r="B324" s="7"/>
       <c r="C324" s="7"/>
@@ -14986,7 +14986,7 @@
       <c r="AG324" s="14"/>
       <c r="AH324" s="14"/>
     </row>
-    <row r="325" spans="1:34" ht="17" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:34" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A325" s="7"/>
       <c r="B325" s="7"/>
       <c r="C325" s="7"/>
@@ -15030,7 +15030,7 @@
       <c r="AG325" s="14"/>
       <c r="AH325" s="14"/>
     </row>
-    <row r="326" spans="1:34" ht="17" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:34" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A326" s="7"/>
       <c r="B326" s="7"/>
       <c r="C326" s="7"/>
@@ -15074,7 +15074,7 @@
       <c r="AG326" s="14"/>
       <c r="AH326" s="14"/>
     </row>
-    <row r="327" spans="1:34" ht="17" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:34" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A327" s="7"/>
       <c r="B327" s="7"/>
       <c r="C327" s="7"/>
@@ -15118,7 +15118,7 @@
       <c r="AG327" s="14"/>
       <c r="AH327" s="14"/>
     </row>
-    <row r="328" spans="1:34" ht="17" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:34" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A328" s="7"/>
       <c r="B328" s="7"/>
       <c r="C328" s="7"/>
@@ -15162,7 +15162,7 @@
       <c r="AG328" s="14"/>
       <c r="AH328" s="14"/>
     </row>
-    <row r="329" spans="1:34" ht="17" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:34" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A329" s="7"/>
       <c r="B329" s="7"/>
       <c r="C329" s="7"/>
@@ -15206,7 +15206,7 @@
       <c r="AG329" s="14"/>
       <c r="AH329" s="14"/>
     </row>
-    <row r="330" spans="1:34" ht="17" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:34" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A330" s="7"/>
       <c r="B330" s="7"/>
       <c r="C330" s="7"/>
@@ -15250,7 +15250,7 @@
       <c r="AG330" s="14"/>
       <c r="AH330" s="14"/>
     </row>
-    <row r="331" spans="1:34" ht="17" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:34" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A331" s="7"/>
       <c r="B331" s="7"/>
       <c r="C331" s="7"/>
@@ -15294,7 +15294,7 @@
       <c r="AG331" s="14"/>
       <c r="AH331" s="14"/>
     </row>
-    <row r="332" spans="1:34" ht="17" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:34" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A332" s="7"/>
       <c r="B332" s="7"/>
       <c r="C332" s="7"/>
@@ -15338,7 +15338,7 @@
       <c r="AG332" s="14"/>
       <c r="AH332" s="14"/>
     </row>
-    <row r="333" spans="1:34" ht="17" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:34" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A333" s="7"/>
       <c r="B333" s="7"/>
       <c r="C333" s="7"/>
@@ -15382,7 +15382,7 @@
       <c r="AG333" s="14"/>
       <c r="AH333" s="14"/>
     </row>
-    <row r="334" spans="1:34" ht="17" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:34" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A334" s="7"/>
       <c r="B334" s="7"/>
       <c r="C334" s="7"/>
@@ -15426,7 +15426,7 @@
       <c r="AG334" s="14"/>
       <c r="AH334" s="14"/>
     </row>
-    <row r="335" spans="1:34" ht="17" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:34" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A335" s="7"/>
       <c r="B335" s="7"/>
       <c r="C335" s="7"/>
@@ -15470,7 +15470,7 @@
       <c r="AG335" s="14"/>
       <c r="AH335" s="14"/>
     </row>
-    <row r="336" spans="1:34" ht="17" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:34" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A336" s="7"/>
       <c r="B336" s="7"/>
       <c r="C336" s="7"/>
@@ -15514,7 +15514,7 @@
       <c r="AG336" s="14"/>
       <c r="AH336" s="14"/>
     </row>
-    <row r="337" spans="1:34" ht="17" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:34" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A337" s="7"/>
       <c r="B337" s="7"/>
       <c r="C337" s="7"/>
@@ -15558,7 +15558,7 @@
       <c r="AG337" s="14"/>
       <c r="AH337" s="14"/>
     </row>
-    <row r="338" spans="1:34" ht="17" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:34" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A338" s="7"/>
       <c r="B338" s="7"/>
       <c r="C338" s="7"/>
@@ -15602,7 +15602,7 @@
       <c r="AG338" s="14"/>
       <c r="AH338" s="14"/>
     </row>
-    <row r="339" spans="1:34" ht="17" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:34" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A339" s="7"/>
       <c r="B339" s="7"/>
       <c r="C339" s="7"/>
@@ -15646,7 +15646,7 @@
       <c r="AG339" s="14"/>
       <c r="AH339" s="14"/>
     </row>
-    <row r="340" spans="1:34" ht="17" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:34" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A340" s="7"/>
       <c r="B340" s="7"/>
       <c r="C340" s="7"/>
@@ -15690,7 +15690,7 @@
       <c r="AG340" s="14"/>
       <c r="AH340" s="14"/>
     </row>
-    <row r="341" spans="1:34" ht="17" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:34" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A341" s="7"/>
       <c r="B341" s="7"/>
       <c r="C341" s="7"/>
@@ -15734,7 +15734,7 @@
       <c r="AG341" s="14"/>
       <c r="AH341" s="14"/>
     </row>
-    <row r="342" spans="1:34" ht="17" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:34" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A342" s="7"/>
       <c r="B342" s="7"/>
       <c r="C342" s="7"/>
@@ -15778,7 +15778,7 @@
       <c r="AG342" s="14"/>
       <c r="AH342" s="14"/>
     </row>
-    <row r="343" spans="1:34" ht="17" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:34" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A343" s="7"/>
       <c r="B343" s="7"/>
       <c r="C343" s="7"/>
@@ -15822,7 +15822,7 @@
       <c r="AG343" s="14"/>
       <c r="AH343" s="14"/>
     </row>
-    <row r="344" spans="1:34" ht="17" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:34" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A344" s="7"/>
       <c r="B344" s="7"/>
       <c r="C344" s="7"/>
@@ -15866,7 +15866,7 @@
       <c r="AG344" s="14"/>
       <c r="AH344" s="14"/>
     </row>
-    <row r="345" spans="1:34" ht="17" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:34" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A345" s="7"/>
       <c r="B345" s="7"/>
       <c r="C345" s="7"/>
@@ -15910,7 +15910,7 @@
       <c r="AG345" s="14"/>
       <c r="AH345" s="14"/>
     </row>
-    <row r="346" spans="1:34" ht="17" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:34" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A346" s="7"/>
       <c r="B346" s="7"/>
       <c r="C346" s="7"/>
@@ -15954,7 +15954,7 @@
       <c r="AG346" s="14"/>
       <c r="AH346" s="14"/>
     </row>
-    <row r="347" spans="1:34" ht="17" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:34" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A347" s="7"/>
       <c r="B347" s="7"/>
       <c r="C347" s="7"/>
@@ -15998,7 +15998,7 @@
       <c r="AG347" s="14"/>
       <c r="AH347" s="14"/>
     </row>
-    <row r="348" spans="1:34" ht="17" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:34" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A348" s="7"/>
       <c r="B348" s="7"/>
       <c r="C348" s="7"/>
@@ -16042,7 +16042,7 @@
       <c r="AG348" s="14"/>
       <c r="AH348" s="14"/>
     </row>
-    <row r="349" spans="1:34" ht="17" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:34" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A349" s="7"/>
       <c r="B349" s="7"/>
       <c r="C349" s="7"/>
@@ -16086,7 +16086,7 @@
       <c r="AG349" s="14"/>
       <c r="AH349" s="14"/>
     </row>
-    <row r="350" spans="1:34" ht="17" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:34" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A350" s="7"/>
       <c r="B350" s="7"/>
       <c r="C350" s="7"/>
@@ -16130,7 +16130,7 @@
       <c r="AG350" s="14"/>
       <c r="AH350" s="14"/>
     </row>
-    <row r="351" spans="1:34" ht="17" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:34" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A351" s="7"/>
       <c r="B351" s="7"/>
       <c r="C351" s="7"/>
@@ -16174,7 +16174,7 @@
       <c r="AG351" s="14"/>
       <c r="AH351" s="14"/>
     </row>
-    <row r="352" spans="1:34" ht="17" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:34" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A352" s="7"/>
       <c r="B352" s="7"/>
       <c r="C352" s="7"/>
@@ -16218,7 +16218,7 @@
       <c r="AG352" s="14"/>
       <c r="AH352" s="14"/>
     </row>
-    <row r="353" spans="1:34" ht="17" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:34" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A353" s="7"/>
       <c r="B353" s="7"/>
       <c r="C353" s="7"/>
@@ -16262,7 +16262,7 @@
       <c r="AG353" s="14"/>
       <c r="AH353" s="14"/>
     </row>
-    <row r="354" spans="1:34" ht="17" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:34" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A354" s="7"/>
       <c r="B354" s="7"/>
       <c r="C354" s="7"/>
@@ -16306,7 +16306,7 @@
       <c r="AG354" s="14"/>
       <c r="AH354" s="14"/>
     </row>
-    <row r="355" spans="1:34" ht="17" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:34" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A355" s="7"/>
       <c r="B355" s="7"/>
       <c r="C355" s="7"/>
@@ -16350,7 +16350,7 @@
       <c r="AG355" s="14"/>
       <c r="AH355" s="14"/>
     </row>
-    <row r="356" spans="1:34" ht="17" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:34" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A356" s="7"/>
       <c r="B356" s="7"/>
       <c r="C356" s="7"/>
@@ -16394,7 +16394,7 @@
       <c r="AG356" s="14"/>
       <c r="AH356" s="14"/>
     </row>
-    <row r="357" spans="1:34" ht="17" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:34" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A357" s="7"/>
       <c r="B357" s="7"/>
       <c r="C357" s="7"/>
@@ -16438,7 +16438,7 @@
       <c r="AG357" s="14"/>
       <c r="AH357" s="14"/>
     </row>
-    <row r="358" spans="1:34" ht="17" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:34" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A358" s="7"/>
       <c r="B358" s="7"/>
       <c r="C358" s="7"/>
@@ -16482,7 +16482,7 @@
       <c r="AG358" s="14"/>
       <c r="AH358" s="14"/>
     </row>
-    <row r="359" spans="1:34" ht="17" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:34" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A359" s="7"/>
       <c r="B359" s="7"/>
       <c r="C359" s="7"/>
@@ -16526,7 +16526,7 @@
       <c r="AG359" s="14"/>
       <c r="AH359" s="14"/>
     </row>
-    <row r="360" spans="1:34" ht="17" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:34" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A360" s="7"/>
       <c r="B360" s="7"/>
       <c r="C360" s="7"/>
@@ -16570,7 +16570,7 @@
       <c r="AG360" s="14"/>
       <c r="AH360" s="14"/>
     </row>
-    <row r="361" spans="1:34" ht="17" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:34" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A361" s="7"/>
       <c r="B361" s="7"/>
       <c r="C361" s="7"/>
@@ -16614,7 +16614,7 @@
       <c r="AG361" s="14"/>
       <c r="AH361" s="14"/>
     </row>
-    <row r="362" spans="1:34" ht="17" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:34" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A362" s="7"/>
       <c r="B362" s="7"/>
       <c r="C362" s="7"/>
@@ -16658,7 +16658,7 @@
       <c r="AG362" s="14"/>
       <c r="AH362" s="14"/>
     </row>
-    <row r="363" spans="1:34" ht="17" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:34" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A363" s="7"/>
       <c r="B363" s="7"/>
       <c r="C363" s="7"/>
@@ -16702,7 +16702,7 @@
       <c r="AG363" s="14"/>
       <c r="AH363" s="14"/>
     </row>
-    <row r="364" spans="1:34" ht="17" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:34" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A364" s="7"/>
       <c r="B364" s="7"/>
       <c r="C364" s="7"/>
@@ -16746,7 +16746,7 @@
       <c r="AG364" s="14"/>
       <c r="AH364" s="14"/>
     </row>
-    <row r="365" spans="1:34" ht="17" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:34" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A365" s="7"/>
       <c r="B365" s="7"/>
       <c r="C365" s="7"/>
@@ -16790,7 +16790,7 @@
       <c r="AG365" s="14"/>
       <c r="AH365" s="14"/>
     </row>
-    <row r="366" spans="1:34" ht="17" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:34" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A366" s="7"/>
       <c r="B366" s="7"/>
       <c r="C366" s="7"/>
@@ -16834,7 +16834,7 @@
       <c r="AG366" s="14"/>
       <c r="AH366" s="14"/>
     </row>
-    <row r="367" spans="1:34" ht="17" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:34" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A367" s="7"/>
       <c r="B367" s="7"/>
       <c r="C367" s="7"/>
@@ -16878,7 +16878,7 @@
       <c r="AG367" s="14"/>
       <c r="AH367" s="14"/>
     </row>
-    <row r="368" spans="1:34" ht="17" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:34" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A368" s="7"/>
       <c r="B368" s="7"/>
       <c r="C368" s="7"/>
@@ -16922,7 +16922,7 @@
       <c r="AG368" s="14"/>
       <c r="AH368" s="14"/>
     </row>
-    <row r="369" spans="1:34" ht="17" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:34" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A369" s="7"/>
       <c r="B369" s="7"/>
       <c r="C369" s="7"/>
@@ -16966,7 +16966,7 @@
       <c r="AG369" s="14"/>
       <c r="AH369" s="14"/>
     </row>
-    <row r="370" spans="1:34" ht="17" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:34" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A370" s="7"/>
       <c r="B370" s="7"/>
       <c r="C370" s="7"/>
@@ -17010,7 +17010,7 @@
       <c r="AG370" s="14"/>
       <c r="AH370" s="14"/>
     </row>
-    <row r="371" spans="1:34" ht="17" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:34" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A371" s="7"/>
       <c r="B371" s="7"/>
       <c r="C371" s="7"/>
@@ -17054,7 +17054,7 @@
       <c r="AG371" s="14"/>
       <c r="AH371" s="14"/>
     </row>
-    <row r="372" spans="1:34" ht="17" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:34" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A372" s="7"/>
       <c r="B372" s="7"/>
       <c r="C372" s="7"/>
@@ -17098,7 +17098,7 @@
       <c r="AG372" s="14"/>
       <c r="AH372" s="14"/>
     </row>
-    <row r="373" spans="1:34" ht="17" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:34" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A373" s="7"/>
       <c r="B373" s="7"/>
       <c r="C373" s="7"/>
@@ -17142,7 +17142,7 @@
       <c r="AG373" s="14"/>
       <c r="AH373" s="14"/>
     </row>
-    <row r="374" spans="1:34" ht="17" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:34" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A374" s="7"/>
       <c r="B374" s="7"/>
       <c r="C374" s="7"/>
@@ -17186,7 +17186,7 @@
       <c r="AG374" s="14"/>
       <c r="AH374" s="14"/>
     </row>
-    <row r="375" spans="1:34" ht="17" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:34" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A375" s="7"/>
       <c r="B375" s="7"/>
       <c r="C375" s="7"/>
@@ -17230,7 +17230,7 @@
       <c r="AG375" s="14"/>
       <c r="AH375" s="14"/>
     </row>
-    <row r="376" spans="1:34" ht="17" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:34" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A376" s="7"/>
       <c r="B376" s="7"/>
       <c r="C376" s="7"/>
@@ -17274,7 +17274,7 @@
       <c r="AG376" s="14"/>
       <c r="AH376" s="14"/>
     </row>
-    <row r="377" spans="1:34" ht="17" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:34" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A377" s="7"/>
       <c r="B377" s="7"/>
       <c r="C377" s="7"/>
@@ -17318,7 +17318,7 @@
       <c r="AG377" s="14"/>
       <c r="AH377" s="14"/>
     </row>
-    <row r="378" spans="1:34" ht="17" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:34" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A378" s="7"/>
       <c r="B378" s="7"/>
       <c r="C378" s="7"/>
@@ -17362,7 +17362,7 @@
       <c r="AG378" s="14"/>
       <c r="AH378" s="14"/>
     </row>
-    <row r="379" spans="1:34" ht="17" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:34" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A379" s="7"/>
       <c r="B379" s="7"/>
       <c r="C379" s="7"/>
@@ -17406,7 +17406,7 @@
       <c r="AG379" s="14"/>
       <c r="AH379" s="14"/>
     </row>
-    <row r="380" spans="1:34" ht="17" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:34" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A380" s="7"/>
       <c r="B380" s="7"/>
       <c r="C380" s="7"/>
@@ -17450,7 +17450,7 @@
       <c r="AG380" s="14"/>
       <c r="AH380" s="14"/>
     </row>
-    <row r="381" spans="1:34" ht="17" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:34" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A381" s="7"/>
       <c r="B381" s="7"/>
       <c r="C381" s="7"/>
@@ -17494,7 +17494,7 @@
       <c r="AG381" s="14"/>
       <c r="AH381" s="14"/>
     </row>
-    <row r="382" spans="1:34" ht="17" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:34" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A382" s="7"/>
       <c r="B382" s="7"/>
       <c r="C382" s="7"/>
@@ -17538,7 +17538,7 @@
       <c r="AG382" s="14"/>
       <c r="AH382" s="14"/>
     </row>
-    <row r="383" spans="1:34" ht="17" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:34" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A383" s="7"/>
       <c r="B383" s="7"/>
       <c r="C383" s="7"/>
@@ -17582,7 +17582,7 @@
       <c r="AG383" s="14"/>
       <c r="AH383" s="14"/>
     </row>
-    <row r="384" spans="1:34" ht="17" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:34" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A384" s="7"/>
       <c r="B384" s="7"/>
       <c r="C384" s="7"/>
@@ -17626,7 +17626,7 @@
       <c r="AG384" s="14"/>
       <c r="AH384" s="14"/>
     </row>
-    <row r="385" spans="1:34" ht="17" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:34" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A385" s="7"/>
       <c r="B385" s="7"/>
       <c r="C385" s="7"/>
@@ -17670,7 +17670,7 @@
       <c r="AG385" s="14"/>
       <c r="AH385" s="14"/>
     </row>
-    <row r="386" spans="1:34" ht="17" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:34" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A386" s="7"/>
       <c r="B386" s="7"/>
       <c r="C386" s="7"/>
@@ -17714,7 +17714,7 @@
       <c r="AG386" s="14"/>
       <c r="AH386" s="14"/>
     </row>
-    <row r="387" spans="1:34" ht="17" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:34" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A387" s="7"/>
       <c r="B387" s="7"/>
       <c r="C387" s="7"/>
@@ -17758,7 +17758,7 @@
       <c r="AG387" s="14"/>
       <c r="AH387" s="14"/>
     </row>
-    <row r="388" spans="1:34" ht="17" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:34" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A388" s="7"/>
       <c r="B388" s="7"/>
       <c r="C388" s="7"/>
@@ -17802,7 +17802,7 @@
       <c r="AG388" s="14"/>
       <c r="AH388" s="14"/>
     </row>
-    <row r="389" spans="1:34" ht="17" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:34" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A389" s="7"/>
       <c r="B389" s="7"/>
       <c r="C389" s="7"/>
@@ -17846,7 +17846,7 @@
       <c r="AG389" s="14"/>
       <c r="AH389" s="14"/>
     </row>
-    <row r="390" spans="1:34" ht="17" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:34" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A390" s="7"/>
       <c r="B390" s="7"/>
       <c r="C390" s="7"/>
@@ -17890,7 +17890,7 @@
       <c r="AG390" s="14"/>
       <c r="AH390" s="14"/>
     </row>
-    <row r="391" spans="1:34" ht="17" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:34" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A391" s="7"/>
       <c r="B391" s="7"/>
       <c r="C391" s="7"/>
@@ -17934,7 +17934,7 @@
       <c r="AG391" s="14"/>
       <c r="AH391" s="14"/>
     </row>
-    <row r="392" spans="1:34" ht="17" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:34" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A392" s="7"/>
       <c r="B392" s="7"/>
       <c r="C392" s="7"/>
@@ -17978,7 +17978,7 @@
       <c r="AG392" s="14"/>
       <c r="AH392" s="14"/>
     </row>
-    <row r="393" spans="1:34" ht="17" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:34" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A393" s="7"/>
       <c r="B393" s="7"/>
       <c r="C393" s="7"/>
@@ -18022,7 +18022,7 @@
       <c r="AG393" s="14"/>
       <c r="AH393" s="14"/>
     </row>
-    <row r="394" spans="1:34" ht="17" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:34" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A394" s="7"/>
       <c r="B394" s="7"/>
       <c r="C394" s="7"/>
@@ -18066,7 +18066,7 @@
       <c r="AG394" s="14"/>
       <c r="AH394" s="14"/>
     </row>
-    <row r="395" spans="1:34" ht="17" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:34" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A395" s="7"/>
       <c r="B395" s="7"/>
       <c r="C395" s="7"/>
@@ -18110,7 +18110,7 @@
       <c r="AG395" s="14"/>
       <c r="AH395" s="14"/>
     </row>
-    <row r="396" spans="1:34" ht="17" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:34" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A396" s="7"/>
       <c r="B396" s="7"/>
       <c r="C396" s="7"/>
@@ -18154,7 +18154,7 @@
       <c r="AG396" s="14"/>
       <c r="AH396" s="14"/>
     </row>
-    <row r="397" spans="1:34" ht="17" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:34" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A397" s="7"/>
       <c r="B397" s="7"/>
       <c r="C397" s="7"/>
@@ -18198,7 +18198,7 @@
       <c r="AG397" s="14"/>
       <c r="AH397" s="14"/>
     </row>
-    <row r="398" spans="1:34" ht="17" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:34" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A398" s="7"/>
       <c r="B398" s="7"/>
       <c r="C398" s="7"/>
@@ -18242,7 +18242,7 @@
       <c r="AG398" s="14"/>
       <c r="AH398" s="14"/>
     </row>
-    <row r="399" spans="1:34" ht="17" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:34" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A399" s="7"/>
       <c r="B399" s="7"/>
       <c r="C399" s="7"/>
@@ -18286,7 +18286,7 @@
       <c r="AG399" s="14"/>
       <c r="AH399" s="14"/>
     </row>
-    <row r="400" spans="1:34" ht="17" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:34" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A400" s="7"/>
       <c r="B400" s="7"/>
       <c r="C400" s="7"/>
@@ -18330,7 +18330,7 @@
       <c r="AG400" s="14"/>
       <c r="AH400" s="14"/>
     </row>
-    <row r="401" spans="1:34" ht="17" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:34" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A401" s="7"/>
       <c r="B401" s="7"/>
       <c r="C401" s="7"/>
@@ -18374,7 +18374,7 @@
       <c r="AG401" s="14"/>
       <c r="AH401" s="14"/>
     </row>
-    <row r="402" spans="1:34" ht="17" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:34" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A402" s="7"/>
       <c r="B402" s="7"/>
       <c r="C402" s="7"/>
@@ -18418,7 +18418,7 @@
       <c r="AG402" s="14"/>
       <c r="AH402" s="14"/>
     </row>
-    <row r="403" spans="1:34" ht="17" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:34" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A403" s="7"/>
       <c r="B403" s="7"/>
       <c r="C403" s="7"/>
@@ -18462,7 +18462,7 @@
       <c r="AG403" s="14"/>
       <c r="AH403" s="14"/>
     </row>
-    <row r="404" spans="1:34" ht="17" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:34" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A404" s="7"/>
       <c r="B404" s="7"/>
       <c r="C404" s="7"/>
@@ -18506,7 +18506,7 @@
       <c r="AG404" s="14"/>
       <c r="AH404" s="14"/>
     </row>
-    <row r="405" spans="1:34" ht="17" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:34" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A405" s="7"/>
       <c r="B405" s="7"/>
       <c r="C405" s="7"/>
@@ -18550,7 +18550,7 @@
       <c r="AG405" s="14"/>
       <c r="AH405" s="14"/>
     </row>
-    <row r="406" spans="1:34" ht="17" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:34" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A406" s="7"/>
       <c r="B406" s="7"/>
       <c r="C406" s="7"/>
@@ -18594,7 +18594,7 @@
       <c r="AG406" s="14"/>
       <c r="AH406" s="14"/>
     </row>
-    <row r="407" spans="1:34" ht="17" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:34" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A407" s="7"/>
       <c r="B407" s="7"/>
       <c r="C407" s="7"/>
@@ -18638,7 +18638,7 @@
       <c r="AG407" s="14"/>
       <c r="AH407" s="14"/>
     </row>
-    <row r="408" spans="1:34" ht="17" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:34" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A408" s="7"/>
       <c r="B408" s="7"/>
       <c r="C408" s="7"/>
@@ -18682,7 +18682,7 @@
       <c r="AG408" s="14"/>
       <c r="AH408" s="14"/>
     </row>
-    <row r="409" spans="1:34" ht="17" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:34" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A409" s="7"/>
       <c r="B409" s="7"/>
       <c r="C409" s="7"/>
@@ -18726,7 +18726,7 @@
       <c r="AG409" s="14"/>
       <c r="AH409" s="14"/>
     </row>
-    <row r="410" spans="1:34" ht="17" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:34" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A410" s="7"/>
       <c r="B410" s="7"/>
       <c r="C410" s="7"/>
@@ -18770,7 +18770,7 @@
       <c r="AG410" s="14"/>
       <c r="AH410" s="14"/>
     </row>
-    <row r="411" spans="1:34" ht="17" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:34" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A411" s="7"/>
       <c r="B411" s="7"/>
       <c r="C411" s="7"/>
@@ -18814,7 +18814,7 @@
       <c r="AG411" s="14"/>
       <c r="AH411" s="14"/>
     </row>
-    <row r="412" spans="1:34" ht="17" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:34" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A412" s="7"/>
       <c r="B412" s="7"/>
       <c r="C412" s="7"/>
@@ -18858,7 +18858,7 @@
       <c r="AG412" s="14"/>
       <c r="AH412" s="14"/>
     </row>
-    <row r="413" spans="1:34" ht="17" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:34" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A413" s="7"/>
       <c r="B413" s="7"/>
       <c r="C413" s="7"/>
@@ -18902,7 +18902,7 @@
       <c r="AG413" s="14"/>
       <c r="AH413" s="14"/>
     </row>
-    <row r="414" spans="1:34" ht="17" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:34" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A414" s="7"/>
       <c r="B414" s="7"/>
       <c r="C414" s="7"/>
@@ -18946,7 +18946,7 @@
       <c r="AG414" s="14"/>
       <c r="AH414" s="14"/>
     </row>
-    <row r="415" spans="1:34" ht="17" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:34" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A415" s="7"/>
       <c r="B415" s="7"/>
       <c r="C415" s="7"/>
@@ -18990,7 +18990,7 @@
       <c r="AG415" s="14"/>
       <c r="AH415" s="14"/>
     </row>
-    <row r="416" spans="1:34" ht="17" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:34" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A416" s="7"/>
       <c r="B416" s="7"/>
       <c r="C416" s="7"/>
@@ -19036,6 +19036,7 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="Q13:AB13"/>
     <mergeCell ref="A1:AC1"/>
     <mergeCell ref="A13:A14"/>
     <mergeCell ref="B13:B14"/>
@@ -19052,7 +19053,6 @@
     <mergeCell ref="L13:L14"/>
     <mergeCell ref="M13:M14"/>
     <mergeCell ref="N13:P13"/>
-    <mergeCell ref="Q13:AB13"/>
   </mergeCells>
   <conditionalFormatting sqref="G44:G416">
     <cfRule type="duplicateValues" dxfId="2" priority="1"/>
